--- a/AWRU Ranking Data Chemistry.xlsx
+++ b/AWRU Ranking Data Chemistry.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/code/arwu_scraper/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713AAE48-F834-6147-9A13-8EE81C8701FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -1747,8 +1741,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1800,16 +1794,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1817,14 +1805,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1871,7 +1851,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1903,27 +1883,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1955,24 +1917,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2148,25 +2092,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A480" workbookViewId="0">
-      <selection activeCell="C492" sqref="C492"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2197,8 +2131,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+    <row r="2" spans="1:10">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -2223,14 +2157,14 @@
         <v>100</v>
       </c>
       <c r="I2">
-        <v>90.9</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="J2" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+    <row r="3" spans="1:10">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -2252,17 +2186,17 @@
         <v>75.2</v>
       </c>
       <c r="H3">
-        <v>85.1</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="I3">
-        <v>90.1</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="J3" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+    <row r="4" spans="1:10">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -2284,17 +2218,17 @@
         <v>73.8</v>
       </c>
       <c r="H4">
-        <v>88.9</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="I4">
-        <v>81.599999999999994</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="J4" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+    <row r="5" spans="1:10">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -2310,13 +2244,13 @@
         <v>68.3</v>
       </c>
       <c r="F5">
-        <v>97.4</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="G5">
         <v>71</v>
       </c>
       <c r="H5">
-        <v>95.9</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="I5">
         <v>62.4</v>
@@ -2325,8 +2259,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+    <row r="6" spans="1:10">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -2342,10 +2276,10 @@
         <v>62</v>
       </c>
       <c r="F6">
-        <v>94.6</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="G6">
-        <v>79.900000000000006</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="H6">
         <v>79.3</v>
@@ -2357,8 +2291,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+    <row r="7" spans="1:10">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -2368,7 +2302,7 @@
         <v>535</v>
       </c>
       <c r="D7">
-        <v>323.89999999999998</v>
+        <v>323.9</v>
       </c>
       <c r="E7">
         <v>46.1</v>
@@ -2377,7 +2311,7 @@
         <v>95.5</v>
       </c>
       <c r="G7">
-        <v>66.400000000000006</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="H7">
         <v>69</v>
@@ -2389,8 +2323,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+    <row r="8" spans="1:10">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -2421,8 +2355,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+    <row r="9" spans="1:10">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -2435,10 +2369,10 @@
         <v>293.7</v>
       </c>
       <c r="E9">
-        <v>99.6</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F9">
-        <v>94.4</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="G9">
         <v>49.9</v>
@@ -2453,8 +2387,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+    <row r="10" spans="1:10">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -2467,16 +2401,16 @@
         <v>293.2</v>
       </c>
       <c r="E10">
-        <v>68.900000000000006</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="F10">
         <v>88.5</v>
       </c>
       <c r="G10">
-        <v>86.9</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="H10">
-        <v>83.1</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="I10">
         <v>35.4</v>
@@ -2485,8 +2419,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+    <row r="11" spans="1:10">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -2496,19 +2430,19 @@
         <v>538</v>
       </c>
       <c r="D11">
-        <v>292.39999999999998</v>
+        <v>292.4</v>
       </c>
       <c r="E11">
         <v>68.5</v>
       </c>
       <c r="F11">
-        <v>81.599999999999994</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="G11">
-        <v>80.099999999999994</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="H11">
-        <v>81.900000000000006</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="I11">
         <v>44.5</v>
@@ -2517,8 +2451,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+    <row r="12" spans="1:10">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -2540,7 +2474,7 @@
         <v>85.8</v>
       </c>
       <c r="H12">
-        <v>81.599999999999994</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2549,8 +2483,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+    <row r="13" spans="1:10">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -2566,13 +2500,13 @@
         <v>57.6</v>
       </c>
       <c r="F13">
-        <v>92.1</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="G13">
-        <v>66.599999999999994</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="H13">
-        <v>69.900000000000006</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="I13">
         <v>49.3</v>
@@ -2581,8 +2515,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+    <row r="14" spans="1:10">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -2607,14 +2541,14 @@
         <v>57.4</v>
       </c>
       <c r="I14">
-        <v>40.799999999999997</v>
+        <v>40.8</v>
       </c>
       <c r="J14" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+    <row r="15" spans="1:10">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -2636,7 +2570,7 @@
         <v>51.7</v>
       </c>
       <c r="H15">
-        <v>77.400000000000006</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2645,8 +2579,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+    <row r="16" spans="1:10">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -2668,7 +2602,7 @@
         <v>55.5</v>
       </c>
       <c r="H16">
-        <v>91.4</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="I16">
         <v>28.9</v>
@@ -2677,8 +2611,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+    <row r="17" spans="1:10">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -2694,7 +2628,7 @@
         <v>89.8</v>
       </c>
       <c r="F17">
-        <v>88.6</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="G17">
         <v>51.7</v>
@@ -2709,8 +2643,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+    <row r="18" spans="1:10">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -2741,8 +2675,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+    <row r="19" spans="1:10">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -2758,7 +2692,7 @@
         <v>74.8</v>
       </c>
       <c r="F19">
-        <v>69.099999999999994</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="G19">
         <v>52.3</v>
@@ -2773,8 +2707,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+    <row r="20" spans="1:10">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -2793,7 +2727,7 @@
         <v>83.5</v>
       </c>
       <c r="G20">
-        <v>80.400000000000006</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="H20">
         <v>80</v>
@@ -2805,8 +2739,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+    <row r="21" spans="1:10">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -2819,7 +2753,7 @@
         <v>258.2</v>
       </c>
       <c r="E21">
-        <v>82.6</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="F21">
         <v>92.2</v>
@@ -2828,7 +2762,7 @@
         <v>44.1</v>
       </c>
       <c r="H21">
-        <v>74.599999999999994</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2837,8 +2771,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+    <row r="22" spans="1:10">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -2851,13 +2785,13 @@
         <v>256.5</v>
       </c>
       <c r="E22">
-        <v>76.099999999999994</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="F22">
-        <v>94.6</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="G22">
-        <v>82.4</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="H22">
         <v>69.3</v>
@@ -2869,8 +2803,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+    <row r="23" spans="1:10">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -2901,8 +2835,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+    <row r="24" spans="1:10">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -2933,8 +2867,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+    <row r="25" spans="1:10">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -2953,20 +2887,20 @@
         <v>94</v>
       </c>
       <c r="G25">
-        <v>76.400000000000006</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="H25">
         <v>68.8</v>
       </c>
       <c r="I25">
-        <v>18.600000000000001</v>
+        <v>18.6</v>
       </c>
       <c r="J25" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+    <row r="26" spans="1:10">
+      <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -2982,7 +2916,7 @@
         <v>93.2</v>
       </c>
       <c r="F26">
-        <v>83.6</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="G26">
         <v>51.1</v>
@@ -2997,8 +2931,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+    <row r="27" spans="1:10">
+      <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -3029,8 +2963,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+    <row r="28" spans="1:10">
+      <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -3043,7 +2977,7 @@
         <v>245.7</v>
       </c>
       <c r="E28">
-        <v>79.599999999999994</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="F28">
         <v>86.8</v>
@@ -3061,8 +2995,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+    <row r="29" spans="1:10">
+      <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
@@ -3078,7 +3012,7 @@
         <v>51.5</v>
       </c>
       <c r="F29">
-        <v>88.1</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="G29">
         <v>67.3</v>
@@ -3093,8 +3027,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+    <row r="30" spans="1:10">
+      <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -3113,10 +3047,10 @@
         <v>95.5</v>
       </c>
       <c r="G30">
-        <v>84.1</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="H30">
-        <v>71.099999999999994</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -3125,8 +3059,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+    <row r="31" spans="1:10">
+      <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
@@ -3142,7 +3076,7 @@
         <v>43</v>
       </c>
       <c r="F31">
-        <v>92.9</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="G31">
         <v>66.3</v>
@@ -3151,14 +3085,14 @@
         <v>52.4</v>
       </c>
       <c r="I31">
-        <v>37.299999999999997</v>
+        <v>37.3</v>
       </c>
       <c r="J31" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
         <v>10</v>
       </c>
       <c r="B32" t="s">
@@ -3189,8 +3123,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
         <v>11</v>
       </c>
       <c r="B33" t="s">
@@ -3212,7 +3146,7 @@
         <v>66.2</v>
       </c>
       <c r="H33">
-        <v>72.900000000000006</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="I33">
         <v>11.8</v>
@@ -3221,8 +3155,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
         <v>12</v>
       </c>
       <c r="B34" t="s">
@@ -3241,7 +3175,7 @@
         <v>84</v>
       </c>
       <c r="G34">
-        <v>67.599999999999994</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="H34">
         <v>63</v>
@@ -3253,8 +3187,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
         <v>12</v>
       </c>
       <c r="B35" t="s">
@@ -3267,7 +3201,7 @@
         <v>237.1</v>
       </c>
       <c r="E35">
-        <v>88.6</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="F35">
         <v>90.5</v>
@@ -3285,8 +3219,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
         <v>13</v>
       </c>
       <c r="B36" t="s">
@@ -3305,20 +3239,20 @@
         <v>85.3</v>
       </c>
       <c r="G36">
-        <v>75.599999999999994</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="H36">
         <v>61.2</v>
       </c>
       <c r="I36">
-        <v>18.600000000000001</v>
+        <v>18.6</v>
       </c>
       <c r="J36" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
         <v>14</v>
       </c>
       <c r="B37" t="s">
@@ -3340,7 +3274,7 @@
         <v>57</v>
       </c>
       <c r="H37">
-        <v>66.599999999999994</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3349,8 +3283,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
         <v>15</v>
       </c>
       <c r="B38" t="s">
@@ -3366,7 +3300,7 @@
         <v>77.8</v>
       </c>
       <c r="F38">
-        <v>83.1</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="G38">
         <v>54.4</v>
@@ -3381,8 +3315,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
         <v>16</v>
       </c>
       <c r="B39" t="s">
@@ -3398,7 +3332,7 @@
         <v>88.5</v>
       </c>
       <c r="F39">
-        <v>77.099999999999994</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="G39">
         <v>43</v>
@@ -3413,8 +3347,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
         <v>17</v>
       </c>
       <c r="B40" t="s">
@@ -3433,7 +3367,7 @@
         <v>100</v>
       </c>
       <c r="G40">
-        <v>88.4</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="H40">
         <v>56.5</v>
@@ -3445,8 +3379,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
         <v>18</v>
       </c>
       <c r="B41" t="s">
@@ -3459,7 +3393,7 @@
         <v>232</v>
       </c>
       <c r="E41">
-        <v>38.200000000000003</v>
+        <v>38.2</v>
       </c>
       <c r="F41">
         <v>77.2</v>
@@ -3477,8 +3411,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
         <v>19</v>
       </c>
       <c r="B42" t="s">
@@ -3494,7 +3428,7 @@
         <v>55.2</v>
       </c>
       <c r="F42">
-        <v>74.900000000000006</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="G42">
         <v>82.3</v>
@@ -3509,8 +3443,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
         <v>20</v>
       </c>
       <c r="B43" t="s">
@@ -3529,7 +3463,7 @@
         <v>88.7</v>
       </c>
       <c r="G43">
-        <v>74.099999999999994</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="H43">
         <v>52.9</v>
@@ -3541,8 +3475,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
         <v>21</v>
       </c>
       <c r="B44" t="s">
@@ -3573,8 +3507,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
         <v>22</v>
       </c>
       <c r="B45" t="s">
@@ -3590,7 +3524,7 @@
         <v>43</v>
       </c>
       <c r="F45">
-        <v>94.1</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="G45">
         <v>76.8</v>
@@ -3599,14 +3533,14 @@
         <v>37.9</v>
       </c>
       <c r="I45">
-        <v>37.299999999999997</v>
+        <v>37.3</v>
       </c>
       <c r="J45" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
         <v>23</v>
       </c>
       <c r="B46" t="s">
@@ -3622,7 +3556,7 @@
         <v>72.8</v>
       </c>
       <c r="F46">
-        <v>88.1</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="G46">
         <v>46.6</v>
@@ -3637,8 +3571,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
         <v>24</v>
       </c>
       <c r="B47" t="s">
@@ -3654,7 +3588,7 @@
         <v>55.5</v>
       </c>
       <c r="F47">
-        <v>79.099999999999994</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="G47">
         <v>64.7</v>
@@ -3669,8 +3603,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
         <v>25</v>
       </c>
       <c r="B48" t="s">
@@ -3686,7 +3620,7 @@
         <v>52.8</v>
       </c>
       <c r="F48">
-        <v>81.599999999999994</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="G48">
         <v>62.9</v>
@@ -3695,14 +3629,14 @@
         <v>58</v>
       </c>
       <c r="I48">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="J48" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
         <v>26</v>
       </c>
       <c r="B49" t="s">
@@ -3715,7 +3649,7 @@
         <v>223.5</v>
       </c>
       <c r="E49">
-        <v>35.200000000000003</v>
+        <v>35.2</v>
       </c>
       <c r="F49">
         <v>83.3</v>
@@ -3733,8 +3667,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
         <v>27</v>
       </c>
       <c r="B50" t="s">
@@ -3753,20 +3687,20 @@
         <v>68.2</v>
       </c>
       <c r="G50">
-        <v>74.599999999999994</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="H50">
         <v>56.2</v>
       </c>
       <c r="I50">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="J50" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
         <v>27</v>
       </c>
       <c r="B51" t="s">
@@ -3782,7 +3716,7 @@
         <v>49.3</v>
       </c>
       <c r="F51">
-        <v>85.4</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="G51">
         <v>67</v>
@@ -3797,8 +3731,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
         <v>28</v>
       </c>
       <c r="B52" t="s">
@@ -3808,26 +3742,26 @@
         <v>535</v>
       </c>
       <c r="E52">
-        <v>36.700000000000003</v>
+        <v>36.7</v>
       </c>
       <c r="F52">
         <v>88.2</v>
       </c>
       <c r="G52">
-        <v>68.400000000000006</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="H52">
-        <v>40.700000000000003</v>
+        <v>40.7</v>
       </c>
       <c r="I52">
-        <v>37.299999999999997</v>
+        <v>37.3</v>
       </c>
       <c r="J52" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
         <v>28</v>
       </c>
       <c r="B53" t="s">
@@ -3855,8 +3789,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
         <v>28</v>
       </c>
       <c r="B54" t="s">
@@ -3869,7 +3803,7 @@
         <v>71.8</v>
       </c>
       <c r="F54">
-        <v>75.400000000000006</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="G54">
         <v>46.6</v>
@@ -3884,8 +3818,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
         <v>28</v>
       </c>
       <c r="B55" t="s">
@@ -3913,8 +3847,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
         <v>28</v>
       </c>
       <c r="B56" t="s">
@@ -3942,8 +3876,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
         <v>28</v>
       </c>
       <c r="B57" t="s">
@@ -3971,8 +3905,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
         <v>28</v>
       </c>
       <c r="B58" t="s">
@@ -4000,8 +3934,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
         <v>28</v>
       </c>
       <c r="B59" t="s">
@@ -4029,8 +3963,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
         <v>28</v>
       </c>
       <c r="B60" t="s">
@@ -4043,7 +3977,7 @@
         <v>65.2</v>
       </c>
       <c r="F60">
-        <v>82.1</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="G60">
         <v>53.9</v>
@@ -4058,8 +3992,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
         <v>28</v>
       </c>
       <c r="B61" t="s">
@@ -4087,8 +4021,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
         <v>28</v>
       </c>
       <c r="B62" t="s">
@@ -4116,8 +4050,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
+    <row r="63" spans="1:10">
+      <c r="A63" t="s">
         <v>28</v>
       </c>
       <c r="B63" t="s">
@@ -4127,10 +4061,10 @@
         <v>536</v>
       </c>
       <c r="E63">
-        <v>78.900000000000006</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="F63">
-        <v>76.400000000000006</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="G63">
         <v>40</v>
@@ -4145,8 +4079,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
+    <row r="64" spans="1:10">
+      <c r="A64" t="s">
         <v>28</v>
       </c>
       <c r="B64" t="s">
@@ -4174,8 +4108,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
+    <row r="65" spans="1:10">
+      <c r="A65" t="s">
         <v>28</v>
       </c>
       <c r="B65" t="s">
@@ -4188,7 +4122,7 @@
         <v>38</v>
       </c>
       <c r="F65">
-        <v>79.400000000000006</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="G65">
         <v>74</v>
@@ -4203,8 +4137,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
+    <row r="66" spans="1:10">
+      <c r="A66" t="s">
         <v>28</v>
       </c>
       <c r="B66" t="s">
@@ -4232,8 +4166,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
+    <row r="67" spans="1:10">
+      <c r="A67" t="s">
         <v>28</v>
       </c>
       <c r="B67" t="s">
@@ -4246,13 +4180,13 @@
         <v>57.3</v>
       </c>
       <c r="F67">
-        <v>80.099999999999994</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="G67">
         <v>79.2</v>
       </c>
       <c r="H67">
-        <v>67.099999999999994</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -4261,8 +4195,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
+    <row r="68" spans="1:10">
+      <c r="A68" t="s">
         <v>28</v>
       </c>
       <c r="B68" t="s">
@@ -4290,8 +4224,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
+    <row r="69" spans="1:10">
+      <c r="A69" t="s">
         <v>28</v>
       </c>
       <c r="B69" t="s">
@@ -4319,8 +4253,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
+    <row r="70" spans="1:10">
+      <c r="A70" t="s">
         <v>28</v>
       </c>
       <c r="B70" t="s">
@@ -4348,8 +4282,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
+    <row r="71" spans="1:10">
+      <c r="A71" t="s">
         <v>28</v>
       </c>
       <c r="B71" t="s">
@@ -4377,8 +4311,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
+    <row r="72" spans="1:10">
+      <c r="A72" t="s">
         <v>28</v>
       </c>
       <c r="B72" t="s">
@@ -4406,8 +4340,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
+    <row r="73" spans="1:10">
+      <c r="A73" t="s">
         <v>28</v>
       </c>
       <c r="B73" t="s">
@@ -4435,8 +4369,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
+    <row r="74" spans="1:10">
+      <c r="A74" t="s">
         <v>28</v>
       </c>
       <c r="B74" t="s">
@@ -4449,7 +4383,7 @@
         <v>33.1</v>
       </c>
       <c r="F74">
-        <v>80.599999999999994</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="G74">
         <v>79.2</v>
@@ -4458,14 +4392,14 @@
         <v>49.3</v>
       </c>
       <c r="I74">
-        <v>32.299999999999997</v>
+        <v>32.3</v>
       </c>
       <c r="J74" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
+    <row r="75" spans="1:10">
+      <c r="A75" t="s">
         <v>28</v>
       </c>
       <c r="B75" t="s">
@@ -4478,7 +4412,7 @@
         <v>72</v>
       </c>
       <c r="F75">
-        <v>89.4</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="G75">
         <v>42.7</v>
@@ -4493,8 +4427,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
+    <row r="76" spans="1:10">
+      <c r="A76" t="s">
         <v>28</v>
       </c>
       <c r="B76" t="s">
@@ -4516,14 +4450,14 @@
         <v>59.5</v>
       </c>
       <c r="I76">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="J76" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
+    <row r="77" spans="1:10">
+      <c r="A77" t="s">
         <v>29</v>
       </c>
       <c r="B77" t="s">
@@ -4539,7 +4473,7 @@
         <v>77.7</v>
       </c>
       <c r="G77">
-        <v>70.599999999999994</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="H77">
         <v>40.9</v>
@@ -4551,8 +4485,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
+    <row r="78" spans="1:10">
+      <c r="A78" t="s">
         <v>29</v>
       </c>
       <c r="B78" t="s">
@@ -4562,10 +4496,10 @@
         <v>536</v>
       </c>
       <c r="E78">
-        <v>70.400000000000006</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="F78">
-        <v>83.4</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="G78">
         <v>47.7</v>
@@ -4580,8 +4514,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
+    <row r="79" spans="1:10">
+      <c r="A79" t="s">
         <v>29</v>
       </c>
       <c r="B79" t="s">
@@ -4609,8 +4543,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
+    <row r="80" spans="1:10">
+      <c r="A80" t="s">
         <v>29</v>
       </c>
       <c r="B80" t="s">
@@ -4638,8 +4572,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
+    <row r="81" spans="1:10">
+      <c r="A81" t="s">
         <v>29</v>
       </c>
       <c r="B81" t="s">
@@ -4661,14 +4595,14 @@
         <v>49.7</v>
       </c>
       <c r="I81">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="J81" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
+    <row r="82" spans="1:10">
+      <c r="A82" t="s">
         <v>29</v>
       </c>
       <c r="B82" t="s">
@@ -4684,7 +4618,7 @@
         <v>83.7</v>
       </c>
       <c r="G82">
-        <v>83.6</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="H82">
         <v>43.2</v>
@@ -4696,8 +4630,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
+    <row r="83" spans="1:10">
+      <c r="A83" t="s">
         <v>29</v>
       </c>
       <c r="B83" t="s">
@@ -4725,8 +4659,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
+    <row r="84" spans="1:10">
+      <c r="A84" t="s">
         <v>29</v>
       </c>
       <c r="B84" t="s">
@@ -4754,8 +4688,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
+    <row r="85" spans="1:10">
+      <c r="A85" t="s">
         <v>29</v>
       </c>
       <c r="B85" t="s">
@@ -4783,8 +4717,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
+    <row r="86" spans="1:10">
+      <c r="A86" t="s">
         <v>29</v>
       </c>
       <c r="B86" t="s">
@@ -4797,7 +4731,7 @@
         <v>39.1</v>
       </c>
       <c r="F86">
-        <v>95.4</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="G86">
         <v>65.3</v>
@@ -4812,8 +4746,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
+    <row r="87" spans="1:10">
+      <c r="A87" t="s">
         <v>29</v>
       </c>
       <c r="B87" t="s">
@@ -4826,10 +4760,10 @@
         <v>53.9</v>
       </c>
       <c r="F87">
-        <v>76.599999999999994</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="G87">
-        <v>73.599999999999994</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="H87">
         <v>57.1</v>
@@ -4841,8 +4775,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
+    <row r="88" spans="1:10">
+      <c r="A88" t="s">
         <v>29</v>
       </c>
       <c r="B88" t="s">
@@ -4852,10 +4786,10 @@
         <v>545</v>
       </c>
       <c r="E88">
-        <v>68.599999999999994</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="F88">
-        <v>75.400000000000006</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="G88">
         <v>52.2</v>
@@ -4870,8 +4804,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
+    <row r="89" spans="1:10">
+      <c r="A89" t="s">
         <v>29</v>
       </c>
       <c r="B89" t="s">
@@ -4884,13 +4818,13 @@
         <v>70.3</v>
       </c>
       <c r="F89">
-        <v>78.900000000000006</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="G89">
         <v>45.3</v>
       </c>
       <c r="H89">
-        <v>39.200000000000003</v>
+        <v>39.2</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -4899,8 +4833,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
+    <row r="90" spans="1:10">
+      <c r="A90" t="s">
         <v>29</v>
       </c>
       <c r="B90" t="s">
@@ -4916,7 +4850,7 @@
         <v>69.7</v>
       </c>
       <c r="G90">
-        <v>80.400000000000006</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="H90">
         <v>54.5</v>
@@ -4928,8 +4862,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
+    <row r="91" spans="1:10">
+      <c r="A91" t="s">
         <v>29</v>
       </c>
       <c r="B91" t="s">
@@ -4942,7 +4876,7 @@
         <v>48.7</v>
       </c>
       <c r="F91">
-        <v>95.1</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="G91">
         <v>60.3</v>
@@ -4957,8 +4891,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
+    <row r="92" spans="1:10">
+      <c r="A92" t="s">
         <v>29</v>
       </c>
       <c r="B92" t="s">
@@ -4971,7 +4905,7 @@
         <v>43.8</v>
       </c>
       <c r="F92">
-        <v>83.1</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="G92">
         <v>75.5</v>
@@ -4986,8 +4920,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
+    <row r="93" spans="1:10">
+      <c r="A93" t="s">
         <v>29</v>
       </c>
       <c r="B93" t="s">
@@ -5000,10 +4934,10 @@
         <v>51.5</v>
       </c>
       <c r="F93">
-        <v>81.599999999999994</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="G93">
-        <v>76.400000000000006</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="H93">
         <v>51.1</v>
@@ -5015,8 +4949,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
+    <row r="94" spans="1:10">
+      <c r="A94" t="s">
         <v>29</v>
       </c>
       <c r="B94" t="s">
@@ -5044,8 +4978,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
+    <row r="95" spans="1:10">
+      <c r="A95" t="s">
         <v>29</v>
       </c>
       <c r="B95" t="s">
@@ -5073,8 +5007,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
+    <row r="96" spans="1:10">
+      <c r="A96" t="s">
         <v>29</v>
       </c>
       <c r="B96" t="s">
@@ -5090,7 +5024,7 @@
         <v>71</v>
       </c>
       <c r="G96">
-        <v>75.400000000000006</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="H96">
         <v>38.1</v>
@@ -5102,8 +5036,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
+    <row r="97" spans="1:10">
+      <c r="A97" t="s">
         <v>29</v>
       </c>
       <c r="B97" t="s">
@@ -5116,7 +5050,7 @@
         <v>50</v>
       </c>
       <c r="F97">
-        <v>75.900000000000006</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="G97">
         <v>76.7</v>
@@ -5131,8 +5065,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
+    <row r="98" spans="1:10">
+      <c r="A98" t="s">
         <v>29</v>
       </c>
       <c r="B98" t="s">
@@ -5160,8 +5094,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
+    <row r="99" spans="1:10">
+      <c r="A99" t="s">
         <v>29</v>
       </c>
       <c r="B99" t="s">
@@ -5177,7 +5111,7 @@
         <v>77</v>
       </c>
       <c r="G99">
-        <v>66.900000000000006</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="H99">
         <v>67.5</v>
@@ -5189,8 +5123,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
+    <row r="100" spans="1:10">
+      <c r="A100" t="s">
         <v>29</v>
       </c>
       <c r="B100" t="s">
@@ -5203,13 +5137,13 @@
         <v>65.7</v>
       </c>
       <c r="F100">
-        <v>85.4</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="G100">
         <v>56.4</v>
       </c>
       <c r="H100">
-        <v>40.700000000000003</v>
+        <v>40.7</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -5218,8 +5152,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
+    <row r="101" spans="1:10">
+      <c r="A101" t="s">
         <v>29</v>
       </c>
       <c r="B101" t="s">
@@ -5247,8 +5181,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
+    <row r="102" spans="1:10">
+      <c r="A102" t="s">
         <v>30</v>
       </c>
       <c r="B102" t="s">
@@ -5261,23 +5195,23 @@
         <v>40.4</v>
       </c>
       <c r="F102">
-        <v>71.599999999999994</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="G102">
-        <v>84.4</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="H102">
         <v>39.6</v>
       </c>
       <c r="I102">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="J102" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
+    <row r="103" spans="1:10">
+      <c r="A103" t="s">
         <v>30</v>
       </c>
       <c r="B103" t="s">
@@ -5290,7 +5224,7 @@
         <v>47.5</v>
       </c>
       <c r="F103">
-        <v>73.599999999999994</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="G103">
         <v>81.5</v>
@@ -5305,8 +5239,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
+    <row r="104" spans="1:10">
+      <c r="A104" t="s">
         <v>30</v>
       </c>
       <c r="B104" t="s">
@@ -5319,13 +5253,13 @@
         <v>53.4</v>
       </c>
       <c r="F104">
-        <v>86.9</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="G104">
         <v>51.3</v>
       </c>
       <c r="H104">
-        <v>36.700000000000003</v>
+        <v>36.7</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -5334,8 +5268,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
+    <row r="105" spans="1:10">
+      <c r="A105" t="s">
         <v>30</v>
       </c>
       <c r="B105" t="s">
@@ -5363,8 +5297,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
+    <row r="106" spans="1:10">
+      <c r="A106" t="s">
         <v>30</v>
       </c>
       <c r="B106" t="s">
@@ -5392,8 +5326,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
+    <row r="107" spans="1:10">
+      <c r="A107" t="s">
         <v>30</v>
       </c>
       <c r="B107" t="s">
@@ -5421,8 +5355,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
+    <row r="108" spans="1:10">
+      <c r="A108" t="s">
         <v>30</v>
       </c>
       <c r="B108" t="s">
@@ -5441,7 +5375,7 @@
         <v>87.3</v>
       </c>
       <c r="H108">
-        <v>37.200000000000003</v>
+        <v>37.2</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -5450,8 +5384,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="s">
+    <row r="109" spans="1:10">
+      <c r="A109" t="s">
         <v>30</v>
       </c>
       <c r="B109" t="s">
@@ -5479,8 +5413,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
+    <row r="110" spans="1:10">
+      <c r="A110" t="s">
         <v>30</v>
       </c>
       <c r="B110" t="s">
@@ -5508,8 +5442,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
+    <row r="111" spans="1:10">
+      <c r="A111" t="s">
         <v>30</v>
       </c>
       <c r="B111" t="s">
@@ -5522,7 +5456,7 @@
         <v>45.2</v>
       </c>
       <c r="F111">
-        <v>71.900000000000006</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="G111">
         <v>74.5</v>
@@ -5537,8 +5471,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A112" s="3" t="s">
+    <row r="112" spans="1:10">
+      <c r="A112" t="s">
         <v>30</v>
       </c>
       <c r="B112" t="s">
@@ -5551,13 +5485,13 @@
         <v>57.4</v>
       </c>
       <c r="F112">
-        <v>90.6</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="G112">
         <v>41.1</v>
       </c>
       <c r="H112">
-        <v>37.200000000000003</v>
+        <v>37.2</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -5566,8 +5500,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A113" s="3" t="s">
+    <row r="113" spans="1:10">
+      <c r="A113" t="s">
         <v>30</v>
       </c>
       <c r="B113" t="s">
@@ -5580,7 +5514,7 @@
         <v>71.2</v>
       </c>
       <c r="F113">
-        <v>79.599999999999994</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="G113">
         <v>50.1</v>
@@ -5595,8 +5529,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A114" s="3" t="s">
+    <row r="114" spans="1:10">
+      <c r="A114" t="s">
         <v>30</v>
       </c>
       <c r="B114" t="s">
@@ -5624,8 +5558,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
+    <row r="115" spans="1:10">
+      <c r="A115" t="s">
         <v>30</v>
       </c>
       <c r="B115" t="s">
@@ -5638,10 +5572,10 @@
         <v>54.3</v>
       </c>
       <c r="F115">
-        <v>74.599999999999994</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="G115">
-        <v>84.6</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="H115">
         <v>39.6</v>
@@ -5653,8 +5587,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="s">
+    <row r="116" spans="1:10">
+      <c r="A116" t="s">
         <v>30</v>
       </c>
       <c r="B116" t="s">
@@ -5667,7 +5601,7 @@
         <v>51.9</v>
       </c>
       <c r="F116">
-        <v>67.400000000000006</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="G116">
         <v>60.5</v>
@@ -5682,8 +5616,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
+    <row r="117" spans="1:10">
+      <c r="A117" t="s">
         <v>30</v>
       </c>
       <c r="B117" t="s">
@@ -5696,13 +5630,13 @@
         <v>63.2</v>
       </c>
       <c r="F117">
-        <v>84.4</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="G117">
-        <v>36.299999999999997</v>
+        <v>36.3</v>
       </c>
       <c r="H117">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -5711,8 +5645,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="s">
+    <row r="118" spans="1:10">
+      <c r="A118" t="s">
         <v>30</v>
       </c>
       <c r="B118" t="s">
@@ -5725,7 +5659,7 @@
         <v>55.9</v>
       </c>
       <c r="F118">
-        <v>75.099999999999994</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="G118">
         <v>62.1</v>
@@ -5740,8 +5674,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="s">
+    <row r="119" spans="1:10">
+      <c r="A119" t="s">
         <v>30</v>
       </c>
       <c r="B119" t="s">
@@ -5769,8 +5703,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
+    <row r="120" spans="1:10">
+      <c r="A120" t="s">
         <v>30</v>
       </c>
       <c r="B120" t="s">
@@ -5798,8 +5732,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="s">
+    <row r="121" spans="1:10">
+      <c r="A121" t="s">
         <v>30</v>
       </c>
       <c r="B121" t="s">
@@ -5809,16 +5743,16 @@
         <v>535</v>
       </c>
       <c r="E121">
-        <v>40.799999999999997</v>
+        <v>40.8</v>
       </c>
       <c r="F121">
-        <v>90.4</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="G121">
-        <v>74.599999999999994</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="H121">
-        <v>38.799999999999997</v>
+        <v>38.8</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -5827,8 +5761,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="s">
+    <row r="122" spans="1:10">
+      <c r="A122" t="s">
         <v>30</v>
       </c>
       <c r="B122" t="s">
@@ -5838,7 +5772,7 @@
         <v>536</v>
       </c>
       <c r="E122">
-        <v>32.799999999999997</v>
+        <v>32.8</v>
       </c>
       <c r="F122">
         <v>93.8</v>
@@ -5847,7 +5781,7 @@
         <v>58.2</v>
       </c>
       <c r="H122">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -5856,8 +5790,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="s">
+    <row r="123" spans="1:10">
+      <c r="A123" t="s">
         <v>30</v>
       </c>
       <c r="B123" t="s">
@@ -5885,8 +5819,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A124" s="3" t="s">
+    <row r="124" spans="1:10">
+      <c r="A124" t="s">
         <v>30</v>
       </c>
       <c r="B124" t="s">
@@ -5914,8 +5848,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A125" s="3" t="s">
+    <row r="125" spans="1:10">
+      <c r="A125" t="s">
         <v>30</v>
       </c>
       <c r="B125" t="s">
@@ -5934,7 +5868,7 @@
         <v>58.6</v>
       </c>
       <c r="H125">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -5943,8 +5877,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A126" s="3" t="s">
+    <row r="126" spans="1:10">
+      <c r="A126" t="s">
         <v>30</v>
       </c>
       <c r="B126" t="s">
@@ -5954,16 +5888,16 @@
         <v>546</v>
       </c>
       <c r="E126">
-        <v>35.799999999999997</v>
+        <v>35.8</v>
       </c>
       <c r="F126">
-        <v>76.099999999999994</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="G126">
-        <v>76.099999999999994</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="H126">
-        <v>38.799999999999997</v>
+        <v>38.8</v>
       </c>
       <c r="I126">
         <v>14.4</v>
@@ -5972,8 +5906,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A127" s="3" t="s">
+    <row r="127" spans="1:10">
+      <c r="A127" t="s">
         <v>30</v>
       </c>
       <c r="B127" t="s">
@@ -5983,7 +5917,7 @@
         <v>549</v>
       </c>
       <c r="E127">
-        <v>33.299999999999997</v>
+        <v>33.3</v>
       </c>
       <c r="F127">
         <v>100</v>
@@ -6001,8 +5935,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A128" s="3" t="s">
+    <row r="128" spans="1:10">
+      <c r="A128" t="s">
         <v>30</v>
       </c>
       <c r="B128" t="s">
@@ -6012,10 +5946,10 @@
         <v>547</v>
       </c>
       <c r="E128">
-        <v>40.700000000000003</v>
+        <v>40.7</v>
       </c>
       <c r="F128">
-        <v>87.6</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="G128">
         <v>57.5</v>
@@ -6030,8 +5964,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A129" s="3" t="s">
+    <row r="129" spans="1:10">
+      <c r="A129" t="s">
         <v>30</v>
       </c>
       <c r="B129" t="s">
@@ -6044,7 +5978,7 @@
         <v>53.2</v>
       </c>
       <c r="F129">
-        <v>85.1</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="G129">
         <v>80.2</v>
@@ -6059,8 +5993,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A130" s="3" t="s">
+    <row r="130" spans="1:10">
+      <c r="A130" t="s">
         <v>30</v>
       </c>
       <c r="B130" t="s">
@@ -6073,7 +6007,7 @@
         <v>54.6</v>
       </c>
       <c r="F130">
-        <v>84.4</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="G130">
         <v>82</v>
@@ -6088,8 +6022,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A131" s="3" t="s">
+    <row r="131" spans="1:10">
+      <c r="A131" t="s">
         <v>30</v>
       </c>
       <c r="B131" t="s">
@@ -6102,7 +6036,7 @@
         <v>56.3</v>
       </c>
       <c r="F131">
-        <v>64.400000000000006</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="G131">
         <v>62.6</v>
@@ -6117,8 +6051,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A132" s="3" t="s">
+    <row r="132" spans="1:10">
+      <c r="A132" t="s">
         <v>30</v>
       </c>
       <c r="B132" t="s">
@@ -6146,8 +6080,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A133" s="3" t="s">
+    <row r="133" spans="1:10">
+      <c r="A133" t="s">
         <v>30</v>
       </c>
       <c r="B133" t="s">
@@ -6163,7 +6097,7 @@
         <v>73.2</v>
       </c>
       <c r="G133">
-        <v>81.599999999999994</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="H133">
         <v>48.1</v>
@@ -6175,8 +6109,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A134" s="3" t="s">
+    <row r="134" spans="1:10">
+      <c r="A134" t="s">
         <v>30</v>
       </c>
       <c r="B134" t="s">
@@ -6192,7 +6126,7 @@
         <v>77.5</v>
       </c>
       <c r="G134">
-        <v>71.900000000000006</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="H134">
         <v>49.9</v>
@@ -6204,8 +6138,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A135" s="3" t="s">
+    <row r="135" spans="1:10">
+      <c r="A135" t="s">
         <v>30</v>
       </c>
       <c r="B135" t="s">
@@ -6215,10 +6149,10 @@
         <v>537</v>
       </c>
       <c r="E135">
-        <v>40.700000000000003</v>
+        <v>40.7</v>
       </c>
       <c r="F135">
-        <v>75.900000000000006</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="G135">
         <v>80.5</v>
@@ -6233,8 +6167,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A136" s="3" t="s">
+    <row r="136" spans="1:10">
+      <c r="A136" t="s">
         <v>30</v>
       </c>
       <c r="B136" t="s">
@@ -6247,7 +6181,7 @@
         <v>41.8</v>
       </c>
       <c r="F136">
-        <v>70.400000000000006</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="G136">
         <v>75</v>
@@ -6256,14 +6190,14 @@
         <v>39.9</v>
       </c>
       <c r="I136">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="J136" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A137" s="3" t="s">
+    <row r="137" spans="1:10">
+      <c r="A137" t="s">
         <v>30</v>
       </c>
       <c r="B137" t="s">
@@ -6276,7 +6210,7 @@
         <v>39</v>
       </c>
       <c r="F137">
-        <v>88.6</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="G137">
         <v>69.5</v>
@@ -6291,8 +6225,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A138" s="3" t="s">
+    <row r="138" spans="1:10">
+      <c r="A138" t="s">
         <v>30</v>
       </c>
       <c r="B138" t="s">
@@ -6305,7 +6239,7 @@
         <v>38.9</v>
       </c>
       <c r="F138">
-        <v>87.4</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="G138">
         <v>67.3</v>
@@ -6320,8 +6254,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A139" s="3" t="s">
+    <row r="139" spans="1:10">
+      <c r="A139" t="s">
         <v>30</v>
       </c>
       <c r="B139" t="s">
@@ -6340,17 +6274,17 @@
         <v>64.7</v>
       </c>
       <c r="H139">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
       <c r="I139">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="J139" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A140" s="3" t="s">
+    <row r="140" spans="1:10">
+      <c r="A140" t="s">
         <v>30</v>
       </c>
       <c r="B140" t="s">
@@ -6363,7 +6297,7 @@
         <v>41.2</v>
       </c>
       <c r="F140">
-        <v>77.599999999999994</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="G140">
         <v>72.8</v>
@@ -6378,8 +6312,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A141" s="3" t="s">
+    <row r="141" spans="1:10">
+      <c r="A141" t="s">
         <v>30</v>
       </c>
       <c r="B141" t="s">
@@ -6392,7 +6326,7 @@
         <v>44.9</v>
       </c>
       <c r="F141">
-        <v>92.4</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="G141">
         <v>66.7</v>
@@ -6407,8 +6341,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A142" s="3" t="s">
+    <row r="142" spans="1:10">
+      <c r="A142" t="s">
         <v>30</v>
       </c>
       <c r="B142" t="s">
@@ -6436,8 +6370,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A143" s="3" t="s">
+    <row r="143" spans="1:10">
+      <c r="A143" t="s">
         <v>30</v>
       </c>
       <c r="B143" t="s">
@@ -6459,14 +6393,14 @@
         <v>34.5</v>
       </c>
       <c r="I143">
-        <v>40.799999999999997</v>
+        <v>40.8</v>
       </c>
       <c r="J143" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A144" s="3" t="s">
+    <row r="144" spans="1:10">
+      <c r="A144" t="s">
         <v>30</v>
       </c>
       <c r="B144" t="s">
@@ -6479,7 +6413,7 @@
         <v>39.1</v>
       </c>
       <c r="F144">
-        <v>80.900000000000006</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="G144">
         <v>64</v>
@@ -6494,8 +6428,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A145" s="3" t="s">
+    <row r="145" spans="1:10">
+      <c r="A145" t="s">
         <v>30</v>
       </c>
       <c r="B145" t="s">
@@ -6511,7 +6445,7 @@
         <v>96.2</v>
       </c>
       <c r="G145">
-        <v>72.599999999999994</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="H145">
         <v>34.5</v>
@@ -6523,8 +6457,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A146" s="3" t="s">
+    <row r="146" spans="1:10">
+      <c r="A146" t="s">
         <v>30</v>
       </c>
       <c r="B146" t="s">
@@ -6537,7 +6471,7 @@
         <v>55.5</v>
       </c>
       <c r="F146">
-        <v>74.099999999999994</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="G146">
         <v>77.3</v>
@@ -6552,8 +6486,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A147" s="3" t="s">
+    <row r="147" spans="1:10">
+      <c r="A147" t="s">
         <v>30</v>
       </c>
       <c r="B147" t="s">
@@ -6566,10 +6500,10 @@
         <v>46.4</v>
       </c>
       <c r="F147">
-        <v>77.900000000000006</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="G147">
-        <v>81.400000000000006</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="H147">
         <v>40.1</v>
@@ -6581,8 +6515,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A148" s="3" t="s">
+    <row r="148" spans="1:10">
+      <c r="A148" t="s">
         <v>30</v>
       </c>
       <c r="B148" t="s">
@@ -6598,7 +6532,7 @@
         <v>99.8</v>
       </c>
       <c r="G148">
-        <v>91.6</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="H148">
         <v>28.2</v>
@@ -6610,8 +6544,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A149" s="3" t="s">
+    <row r="149" spans="1:10">
+      <c r="A149" t="s">
         <v>30</v>
       </c>
       <c r="B149" t="s">
@@ -6624,10 +6558,10 @@
         <v>45.2</v>
       </c>
       <c r="F149">
-        <v>80.900000000000006</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="G149">
-        <v>74.900000000000006</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="H149">
         <v>53.9</v>
@@ -6639,8 +6573,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A150" s="3" t="s">
+    <row r="150" spans="1:10">
+      <c r="A150" t="s">
         <v>30</v>
       </c>
       <c r="B150" t="s">
@@ -6668,8 +6602,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A151" s="3" t="s">
+    <row r="151" spans="1:10">
+      <c r="A151" t="s">
         <v>30</v>
       </c>
       <c r="B151" t="s">
@@ -6697,8 +6631,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A152" s="3" t="s">
+    <row r="152" spans="1:10">
+      <c r="A152" t="s">
         <v>31</v>
       </c>
       <c r="B152" t="s">
@@ -6711,10 +6645,10 @@
         <v>22.1</v>
       </c>
       <c r="F152">
-        <v>91.9</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="G152">
-        <v>65.599999999999994</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="H152">
         <v>45</v>
@@ -6726,8 +6660,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A153" s="3" t="s">
+    <row r="153" spans="1:10">
+      <c r="A153" t="s">
         <v>31</v>
       </c>
       <c r="B153" t="s">
@@ -6743,7 +6677,7 @@
         <v>90.7</v>
       </c>
       <c r="G153">
-        <v>69.599999999999994</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="H153">
         <v>30.5</v>
@@ -6755,8 +6689,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A154" s="3" t="s">
+    <row r="154" spans="1:10">
+      <c r="A154" t="s">
         <v>31</v>
       </c>
       <c r="B154" t="s">
@@ -6784,8 +6718,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A155" s="3" t="s">
+    <row r="155" spans="1:10">
+      <c r="A155" t="s">
         <v>31</v>
       </c>
       <c r="B155" t="s">
@@ -6798,10 +6732,10 @@
         <v>48.8</v>
       </c>
       <c r="F155">
-        <v>66.400000000000006</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="G155">
-        <v>77.400000000000006</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="H155">
         <v>38.5</v>
@@ -6813,8 +6747,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A156" s="3" t="s">
+    <row r="156" spans="1:10">
+      <c r="A156" t="s">
         <v>31</v>
       </c>
       <c r="B156" t="s">
@@ -6842,8 +6776,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A157" s="3" t="s">
+    <row r="157" spans="1:10">
+      <c r="A157" t="s">
         <v>31</v>
       </c>
       <c r="B157" t="s">
@@ -6856,7 +6790,7 @@
         <v>31.3</v>
       </c>
       <c r="F157">
-        <v>81.900000000000006</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="G157">
         <v>61.9</v>
@@ -6871,8 +6805,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A158" s="3" t="s">
+    <row r="158" spans="1:10">
+      <c r="A158" t="s">
         <v>31</v>
       </c>
       <c r="B158" t="s">
@@ -6882,13 +6816,13 @@
         <v>535</v>
       </c>
       <c r="E158">
-        <v>36.700000000000003</v>
+        <v>36.7</v>
       </c>
       <c r="F158">
-        <v>79.900000000000006</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="G158">
-        <v>67.400000000000006</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="H158">
         <v>41.4</v>
@@ -6900,8 +6834,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A159" s="3" t="s">
+    <row r="159" spans="1:10">
+      <c r="A159" t="s">
         <v>31</v>
       </c>
       <c r="B159" t="s">
@@ -6914,7 +6848,7 @@
         <v>51.9</v>
       </c>
       <c r="F159">
-        <v>78.099999999999994</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="G159">
         <v>82</v>
@@ -6929,8 +6863,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A160" s="3" t="s">
+    <row r="160" spans="1:10">
+      <c r="A160" t="s">
         <v>31</v>
       </c>
       <c r="B160" t="s">
@@ -6958,8 +6892,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A161" s="3" t="s">
+    <row r="161" spans="1:10">
+      <c r="A161" t="s">
         <v>31</v>
       </c>
       <c r="B161" t="s">
@@ -6975,7 +6909,7 @@
         <v>69.7</v>
       </c>
       <c r="G161">
-        <v>70.900000000000006</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="H161">
         <v>46.8</v>
@@ -6987,8 +6921,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A162" s="3" t="s">
+    <row r="162" spans="1:10">
+      <c r="A162" t="s">
         <v>31</v>
       </c>
       <c r="B162" t="s">
@@ -7016,8 +6950,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A163" s="3" t="s">
+    <row r="163" spans="1:10">
+      <c r="A163" t="s">
         <v>31</v>
       </c>
       <c r="B163" t="s">
@@ -7045,8 +6979,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A164" s="3" t="s">
+    <row r="164" spans="1:10">
+      <c r="A164" t="s">
         <v>31</v>
       </c>
       <c r="B164" t="s">
@@ -7059,7 +6993,7 @@
         <v>49.4</v>
       </c>
       <c r="F164">
-        <v>75.400000000000006</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="G164">
         <v>86</v>
@@ -7074,8 +7008,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A165" s="3" t="s">
+    <row r="165" spans="1:10">
+      <c r="A165" t="s">
         <v>31</v>
       </c>
       <c r="B165" t="s">
@@ -7103,8 +7037,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A166" s="3" t="s">
+    <row r="166" spans="1:10">
+      <c r="A166" t="s">
         <v>31</v>
       </c>
       <c r="B166" t="s">
@@ -7132,8 +7066,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A167" s="3" t="s">
+    <row r="167" spans="1:10">
+      <c r="A167" t="s">
         <v>31</v>
       </c>
       <c r="B167" t="s">
@@ -7161,8 +7095,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A168" s="3" t="s">
+    <row r="168" spans="1:10">
+      <c r="A168" t="s">
         <v>31</v>
       </c>
       <c r="B168" t="s">
@@ -7172,13 +7106,13 @@
         <v>549</v>
       </c>
       <c r="E168">
-        <v>35.700000000000003</v>
+        <v>35.7</v>
       </c>
       <c r="F168">
-        <v>90.1</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="G168">
-        <v>88.9</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="H168">
         <v>26.3</v>
@@ -7190,8 +7124,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A169" s="3" t="s">
+    <row r="169" spans="1:10">
+      <c r="A169" t="s">
         <v>31</v>
       </c>
       <c r="B169" t="s">
@@ -7219,8 +7153,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A170" s="3" t="s">
+    <row r="170" spans="1:10">
+      <c r="A170" t="s">
         <v>31</v>
       </c>
       <c r="B170" t="s">
@@ -7233,7 +7167,7 @@
         <v>53.9</v>
       </c>
       <c r="F170">
-        <v>79.900000000000006</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="G170">
         <v>55</v>
@@ -7248,8 +7182,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A171" s="3" t="s">
+    <row r="171" spans="1:10">
+      <c r="A171" t="s">
         <v>31</v>
       </c>
       <c r="B171" t="s">
@@ -7262,7 +7196,7 @@
         <v>53.5</v>
       </c>
       <c r="F171">
-        <v>78.099999999999994</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="G171">
         <v>44.6</v>
@@ -7277,8 +7211,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A172" s="3" t="s">
+    <row r="172" spans="1:10">
+      <c r="A172" t="s">
         <v>31</v>
       </c>
       <c r="B172" t="s">
@@ -7291,7 +7225,7 @@
         <v>37.4</v>
       </c>
       <c r="F172">
-        <v>78.099999999999994</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="G172">
         <v>83.2</v>
@@ -7306,8 +7240,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A173" s="3" t="s">
+    <row r="173" spans="1:10">
+      <c r="A173" t="s">
         <v>31</v>
       </c>
       <c r="B173" t="s">
@@ -7320,10 +7254,10 @@
         <v>33.5</v>
       </c>
       <c r="F173">
-        <v>82.9</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="G173">
-        <v>71.099999999999994</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="H173">
         <v>36.5</v>
@@ -7335,8 +7269,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A174" s="3" t="s">
+    <row r="174" spans="1:10">
+      <c r="A174" t="s">
         <v>31</v>
       </c>
       <c r="B174" t="s">
@@ -7364,8 +7298,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A175" s="3" t="s">
+    <row r="175" spans="1:10">
+      <c r="A175" t="s">
         <v>31</v>
       </c>
       <c r="B175" t="s">
@@ -7393,8 +7327,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A176" s="3" t="s">
+    <row r="176" spans="1:10">
+      <c r="A176" t="s">
         <v>31</v>
       </c>
       <c r="B176" t="s">
@@ -7422,8 +7356,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A177" s="3" t="s">
+    <row r="177" spans="1:10">
+      <c r="A177" t="s">
         <v>31</v>
       </c>
       <c r="B177" t="s">
@@ -7451,8 +7385,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A178" s="3" t="s">
+    <row r="178" spans="1:10">
+      <c r="A178" t="s">
         <v>31</v>
       </c>
       <c r="B178" t="s">
@@ -7465,10 +7399,10 @@
         <v>43.3</v>
       </c>
       <c r="F178">
-        <v>77.099999999999994</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="G178">
-        <v>77.400000000000006</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="H178">
         <v>32.5</v>
@@ -7480,8 +7414,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A179" s="3" t="s">
+    <row r="179" spans="1:10">
+      <c r="A179" t="s">
         <v>31</v>
       </c>
       <c r="B179" t="s">
@@ -7509,8 +7443,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A180" s="3" t="s">
+    <row r="180" spans="1:10">
+      <c r="A180" t="s">
         <v>31</v>
       </c>
       <c r="B180" t="s">
@@ -7520,7 +7454,7 @@
         <v>535</v>
       </c>
       <c r="E180">
-        <v>35.700000000000003</v>
+        <v>35.7</v>
       </c>
       <c r="F180">
         <v>86.5</v>
@@ -7529,7 +7463,7 @@
         <v>71.3</v>
       </c>
       <c r="H180">
-        <v>34.799999999999997</v>
+        <v>34.8</v>
       </c>
       <c r="I180">
         <v>0</v>
@@ -7538,8 +7472,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A181" s="3" t="s">
+    <row r="181" spans="1:10">
+      <c r="A181" t="s">
         <v>31</v>
       </c>
       <c r="B181" t="s">
@@ -7549,16 +7483,16 @@
         <v>548</v>
       </c>
       <c r="E181">
-        <v>35.299999999999997</v>
+        <v>35.3</v>
       </c>
       <c r="F181">
-        <v>80.400000000000006</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="G181">
         <v>84.3</v>
       </c>
       <c r="H181">
-        <v>37.200000000000003</v>
+        <v>37.2</v>
       </c>
       <c r="I181">
         <v>0</v>
@@ -7567,8 +7501,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A182" s="3" t="s">
+    <row r="182" spans="1:10">
+      <c r="A182" t="s">
         <v>31</v>
       </c>
       <c r="B182" t="s">
@@ -7596,8 +7530,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A183" s="3" t="s">
+    <row r="183" spans="1:10">
+      <c r="A183" t="s">
         <v>31</v>
       </c>
       <c r="B183" t="s">
@@ -7625,8 +7559,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A184" s="3" t="s">
+    <row r="184" spans="1:10">
+      <c r="A184" t="s">
         <v>31</v>
       </c>
       <c r="B184" t="s">
@@ -7654,8 +7588,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A185" s="3" t="s">
+    <row r="185" spans="1:10">
+      <c r="A185" t="s">
         <v>31</v>
       </c>
       <c r="B185" t="s">
@@ -7671,7 +7605,7 @@
         <v>67.7</v>
       </c>
       <c r="G185">
-        <v>79.099999999999994</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="H185">
         <v>44.2</v>
@@ -7683,8 +7617,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A186" s="3" t="s">
+    <row r="186" spans="1:10">
+      <c r="A186" t="s">
         <v>31</v>
       </c>
       <c r="B186" t="s">
@@ -7712,8 +7646,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A187" s="3" t="s">
+    <row r="187" spans="1:10">
+      <c r="A187" t="s">
         <v>31</v>
       </c>
       <c r="B187" t="s">
@@ -7726,7 +7660,7 @@
         <v>46.4</v>
       </c>
       <c r="F187">
-        <v>93.9</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="G187">
         <v>63.1</v>
@@ -7741,8 +7675,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A188" s="3" t="s">
+    <row r="188" spans="1:10">
+      <c r="A188" t="s">
         <v>31</v>
       </c>
       <c r="B188" t="s">
@@ -7758,7 +7692,7 @@
         <v>79.5</v>
       </c>
       <c r="G188">
-        <v>81.400000000000006</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="H188">
         <v>38.5</v>
@@ -7770,8 +7704,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A189" s="3" t="s">
+    <row r="189" spans="1:10">
+      <c r="A189" t="s">
         <v>31</v>
       </c>
       <c r="B189" t="s">
@@ -7781,7 +7715,7 @@
         <v>544</v>
       </c>
       <c r="E189">
-        <v>34.200000000000003</v>
+        <v>34.2</v>
       </c>
       <c r="F189">
         <v>72.7</v>
@@ -7799,8 +7733,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A190" s="3" t="s">
+    <row r="190" spans="1:10">
+      <c r="A190" t="s">
         <v>31</v>
       </c>
       <c r="B190" t="s">
@@ -7822,14 +7756,14 @@
         <v>22</v>
       </c>
       <c r="I190">
-        <v>40.799999999999997</v>
+        <v>40.8</v>
       </c>
       <c r="J190" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A191" s="3" t="s">
+    <row r="191" spans="1:10">
+      <c r="A191" t="s">
         <v>31</v>
       </c>
       <c r="B191" t="s">
@@ -7842,7 +7776,7 @@
         <v>52.8</v>
       </c>
       <c r="F191">
-        <v>70.400000000000006</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="G191">
         <v>79</v>
@@ -7857,8 +7791,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A192" s="3" t="s">
+    <row r="192" spans="1:10">
+      <c r="A192" t="s">
         <v>31</v>
       </c>
       <c r="B192" t="s">
@@ -7868,16 +7802,16 @@
         <v>535</v>
       </c>
       <c r="E192">
-        <v>35.700000000000003</v>
+        <v>35.7</v>
       </c>
       <c r="F192">
-        <v>92.4</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="G192">
         <v>77.5</v>
       </c>
       <c r="H192">
-        <v>34.799999999999997</v>
+        <v>34.8</v>
       </c>
       <c r="I192">
         <v>0</v>
@@ -7886,8 +7820,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A193" s="3" t="s">
+    <row r="193" spans="1:10">
+      <c r="A193" t="s">
         <v>31</v>
       </c>
       <c r="B193" t="s">
@@ -7915,8 +7849,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A194" s="3" t="s">
+    <row r="194" spans="1:10">
+      <c r="A194" t="s">
         <v>31</v>
       </c>
       <c r="B194" t="s">
@@ -7944,8 +7878,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A195" s="3" t="s">
+    <row r="195" spans="1:10">
+      <c r="A195" t="s">
         <v>31</v>
       </c>
       <c r="B195" t="s">
@@ -7958,7 +7892,7 @@
         <v>53.6</v>
       </c>
       <c r="F195">
-        <v>83.6</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="G195">
         <v>51.2</v>
@@ -7973,8 +7907,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A196" s="3" t="s">
+    <row r="196" spans="1:10">
+      <c r="A196" t="s">
         <v>31</v>
       </c>
       <c r="B196" t="s">
@@ -7987,13 +7921,13 @@
         <v>29.4</v>
       </c>
       <c r="F196">
-        <v>84.9</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="G196">
         <v>77.7</v>
       </c>
       <c r="H196">
-        <v>40.700000000000003</v>
+        <v>40.7</v>
       </c>
       <c r="I196">
         <v>0</v>
@@ -8002,8 +7936,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A197" s="3" t="s">
+    <row r="197" spans="1:10">
+      <c r="A197" t="s">
         <v>31</v>
       </c>
       <c r="B197" t="s">
@@ -8022,7 +7956,7 @@
         <v>77.2</v>
       </c>
       <c r="H197">
-        <v>33.799999999999997</v>
+        <v>33.8</v>
       </c>
       <c r="I197">
         <v>0</v>
@@ -8031,8 +7965,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A198" s="3" t="s">
+    <row r="198" spans="1:10">
+      <c r="A198" t="s">
         <v>31</v>
       </c>
       <c r="B198" t="s">
@@ -8048,7 +7982,7 @@
         <v>85</v>
       </c>
       <c r="G198">
-        <v>79.599999999999994</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="H198">
         <v>31.9</v>
@@ -8060,8 +7994,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A199" s="3" t="s">
+    <row r="199" spans="1:10">
+      <c r="A199" t="s">
         <v>31</v>
       </c>
       <c r="B199" t="s">
@@ -8071,10 +8005,10 @@
         <v>544</v>
       </c>
       <c r="E199">
-        <v>37.200000000000003</v>
+        <v>37.2</v>
       </c>
       <c r="F199">
-        <v>73.599999999999994</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="G199">
         <v>71.2</v>
@@ -8089,8 +8023,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A200" s="3" t="s">
+    <row r="200" spans="1:10">
+      <c r="A200" t="s">
         <v>31</v>
       </c>
       <c r="B200" t="s">
@@ -8103,13 +8037,13 @@
         <v>46.5</v>
       </c>
       <c r="F200">
-        <v>75.099999999999994</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="G200">
         <v>84.8</v>
       </c>
       <c r="H200">
-        <v>36.700000000000003</v>
+        <v>36.7</v>
       </c>
       <c r="I200">
         <v>0</v>
@@ -8118,8 +8052,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A201" s="3" t="s">
+    <row r="201" spans="1:10">
+      <c r="A201" t="s">
         <v>31</v>
       </c>
       <c r="B201" t="s">
@@ -8129,7 +8063,7 @@
         <v>548</v>
       </c>
       <c r="E201">
-        <v>40.700000000000003</v>
+        <v>40.7</v>
       </c>
       <c r="F201">
         <v>80.8</v>
@@ -8147,8 +8081,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A202" s="3" t="s">
+    <row r="202" spans="1:10">
+      <c r="A202" t="s">
         <v>32</v>
       </c>
       <c r="B202" t="s">
@@ -8164,7 +8098,7 @@
         <v>74.2</v>
       </c>
       <c r="G202">
-        <v>85.1</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="H202">
         <v>24.9</v>
@@ -8176,8 +8110,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A203" s="3" t="s">
+    <row r="203" spans="1:10">
+      <c r="A203" t="s">
         <v>32</v>
       </c>
       <c r="B203" t="s">
@@ -8193,7 +8127,7 @@
         <v>69.5</v>
       </c>
       <c r="G203">
-        <v>38.200000000000003</v>
+        <v>38.2</v>
       </c>
       <c r="H203">
         <v>26</v>
@@ -8205,8 +8139,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A204" s="3" t="s">
+    <row r="204" spans="1:10">
+      <c r="A204" t="s">
         <v>32</v>
       </c>
       <c r="B204" t="s">
@@ -8219,10 +8153,10 @@
         <v>42.2</v>
       </c>
       <c r="F204">
-        <v>69.400000000000006</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="G204">
-        <v>75.599999999999994</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="H204">
         <v>37.4</v>
@@ -8234,8 +8168,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A205" s="3" t="s">
+    <row r="205" spans="1:10">
+      <c r="A205" t="s">
         <v>32</v>
       </c>
       <c r="B205" t="s">
@@ -8245,7 +8179,7 @@
         <v>551</v>
       </c>
       <c r="E205">
-        <v>39.299999999999997</v>
+        <v>39.3</v>
       </c>
       <c r="F205">
         <v>70.3</v>
@@ -8254,7 +8188,7 @@
         <v>75.8</v>
       </c>
       <c r="H205">
-        <v>34.299999999999997</v>
+        <v>34.3</v>
       </c>
       <c r="I205">
         <v>0</v>
@@ -8263,8 +8197,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A206" s="3" t="s">
+    <row r="206" spans="1:10">
+      <c r="A206" t="s">
         <v>32</v>
       </c>
       <c r="B206" t="s">
@@ -8277,7 +8211,7 @@
         <v>41.7</v>
       </c>
       <c r="F206">
-        <v>78.400000000000006</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="G206">
         <v>47</v>
@@ -8292,8 +8226,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A207" s="3" t="s">
+    <row r="207" spans="1:10">
+      <c r="A207" t="s">
         <v>32</v>
       </c>
       <c r="B207" t="s">
@@ -8306,13 +8240,13 @@
         <v>22.2</v>
       </c>
       <c r="F207">
-        <v>78.099999999999994</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="G207">
         <v>63</v>
       </c>
       <c r="H207">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="I207">
         <v>23.6</v>
@@ -8321,8 +8255,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A208" s="3" t="s">
+    <row r="208" spans="1:10">
+      <c r="A208" t="s">
         <v>32</v>
       </c>
       <c r="B208" t="s">
@@ -8338,7 +8272,7 @@
         <v>71.7</v>
       </c>
       <c r="G208">
-        <v>68.099999999999994</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="H208">
         <v>28.8</v>
@@ -8350,8 +8284,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A209" s="3" t="s">
+    <row r="209" spans="1:10">
+      <c r="A209" t="s">
         <v>32</v>
       </c>
       <c r="B209" t="s">
@@ -8379,8 +8313,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A210" s="3" t="s">
+    <row r="210" spans="1:10">
+      <c r="A210" t="s">
         <v>32</v>
       </c>
       <c r="B210" t="s">
@@ -8396,7 +8330,7 @@
         <v>71.5</v>
       </c>
       <c r="G210">
-        <v>80.599999999999994</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="H210">
         <v>33</v>
@@ -8408,8 +8342,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A211" s="3" t="s">
+    <row r="211" spans="1:10">
+      <c r="A211" t="s">
         <v>32</v>
       </c>
       <c r="B211" t="s">
@@ -8419,7 +8353,7 @@
         <v>554</v>
       </c>
       <c r="E211">
-        <v>39.700000000000003</v>
+        <v>39.7</v>
       </c>
       <c r="F211">
         <v>74.8</v>
@@ -8437,8 +8371,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A212" s="3" t="s">
+    <row r="212" spans="1:10">
+      <c r="A212" t="s">
         <v>32</v>
       </c>
       <c r="B212" t="s">
@@ -8451,7 +8385,7 @@
         <v>29.4</v>
       </c>
       <c r="F212">
-        <v>78.599999999999994</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="G212">
         <v>63.7</v>
@@ -8466,8 +8400,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A213" s="3" t="s">
+    <row r="213" spans="1:10">
+      <c r="A213" t="s">
         <v>32</v>
       </c>
       <c r="B213" t="s">
@@ -8483,7 +8417,7 @@
         <v>67.8</v>
       </c>
       <c r="G213">
-        <v>73.599999999999994</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="H213">
         <v>31.1</v>
@@ -8495,8 +8429,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A214" s="3" t="s">
+    <row r="214" spans="1:10">
+      <c r="A214" t="s">
         <v>32</v>
       </c>
       <c r="B214" t="s">
@@ -8506,7 +8440,7 @@
         <v>549</v>
       </c>
       <c r="E214">
-        <v>35.700000000000003</v>
+        <v>35.7</v>
       </c>
       <c r="F214">
         <v>90</v>
@@ -8515,7 +8449,7 @@
         <v>86.7</v>
       </c>
       <c r="H214">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="I214">
         <v>0</v>
@@ -8524,8 +8458,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A215" s="3" t="s">
+    <row r="215" spans="1:10">
+      <c r="A215" t="s">
         <v>32</v>
       </c>
       <c r="B215" t="s">
@@ -8553,8 +8487,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A216" s="3" t="s">
+    <row r="216" spans="1:10">
+      <c r="A216" t="s">
         <v>32</v>
       </c>
       <c r="B216" t="s">
@@ -8564,7 +8498,7 @@
         <v>537</v>
       </c>
       <c r="E216">
-        <v>32.200000000000003</v>
+        <v>32.2</v>
       </c>
       <c r="F216">
         <v>74</v>
@@ -8582,8 +8516,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A217" s="3" t="s">
+    <row r="217" spans="1:10">
+      <c r="A217" t="s">
         <v>32</v>
       </c>
       <c r="B217" t="s">
@@ -8593,7 +8527,7 @@
         <v>543</v>
       </c>
       <c r="E217">
-        <v>39.700000000000003</v>
+        <v>39.7</v>
       </c>
       <c r="F217">
         <v>71.8</v>
@@ -8611,8 +8545,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A218" s="3" t="s">
+    <row r="218" spans="1:10">
+      <c r="A218" t="s">
         <v>32</v>
       </c>
       <c r="B218" t="s">
@@ -8622,16 +8556,16 @@
         <v>545</v>
       </c>
       <c r="E218">
-        <v>34.299999999999997</v>
+        <v>34.3</v>
       </c>
       <c r="F218">
         <v>75.3</v>
       </c>
       <c r="G218">
-        <v>66.400000000000006</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="H218">
-        <v>35.299999999999997</v>
+        <v>35.3</v>
       </c>
       <c r="I218">
         <v>0</v>
@@ -8640,8 +8574,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A219" s="3" t="s">
+    <row r="219" spans="1:10">
+      <c r="A219" t="s">
         <v>32</v>
       </c>
       <c r="B219" t="s">
@@ -8654,10 +8588,10 @@
         <v>28.2</v>
       </c>
       <c r="F219">
-        <v>66.900000000000006</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="G219">
-        <v>74.900000000000006</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="H219">
         <v>43.2</v>
@@ -8669,8 +8603,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A220" s="3" t="s">
+    <row r="220" spans="1:10">
+      <c r="A220" t="s">
         <v>32</v>
       </c>
       <c r="B220" t="s">
@@ -8686,10 +8620,10 @@
         <v>100</v>
       </c>
       <c r="G220">
-        <v>88.4</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="H220">
-        <v>17.100000000000001</v>
+        <v>17.1</v>
       </c>
       <c r="I220">
         <v>0</v>
@@ -8698,8 +8632,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A221" s="3" t="s">
+    <row r="221" spans="1:10">
+      <c r="A221" t="s">
         <v>32</v>
       </c>
       <c r="B221" t="s">
@@ -8712,7 +8646,7 @@
         <v>53.9</v>
       </c>
       <c r="F221">
-        <v>76.400000000000006</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="G221">
         <v>59.1</v>
@@ -8727,8 +8661,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A222" s="3" t="s">
+    <row r="222" spans="1:10">
+      <c r="A222" t="s">
         <v>32</v>
       </c>
       <c r="B222" t="s">
@@ -8741,7 +8675,7 @@
         <v>42.7</v>
       </c>
       <c r="F222">
-        <v>69.900000000000006</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="G222">
         <v>50.1</v>
@@ -8756,8 +8690,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A223" s="3" t="s">
+    <row r="223" spans="1:10">
+      <c r="A223" t="s">
         <v>32</v>
       </c>
       <c r="B223" t="s">
@@ -8785,8 +8719,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A224" s="3" t="s">
+    <row r="224" spans="1:10">
+      <c r="A224" t="s">
         <v>32</v>
       </c>
       <c r="B224" t="s">
@@ -8814,8 +8748,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A225" s="3" t="s">
+    <row r="225" spans="1:10">
+      <c r="A225" t="s">
         <v>32</v>
       </c>
       <c r="B225" t="s">
@@ -8834,7 +8768,7 @@
         <v>46.4</v>
       </c>
       <c r="H225">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="I225">
         <v>0</v>
@@ -8843,8 +8777,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A226" s="3" t="s">
+    <row r="226" spans="1:10">
+      <c r="A226" t="s">
         <v>32</v>
       </c>
       <c r="B226" t="s">
@@ -8872,8 +8806,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A227" s="3" t="s">
+    <row r="227" spans="1:10">
+      <c r="A227" t="s">
         <v>32</v>
       </c>
       <c r="B227" t="s">
@@ -8883,16 +8817,16 @@
         <v>542</v>
       </c>
       <c r="E227">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
       <c r="F227">
         <v>72.2</v>
       </c>
       <c r="G227">
-        <v>96.1</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="H227">
-        <v>18.600000000000001</v>
+        <v>18.6</v>
       </c>
       <c r="I227">
         <v>0</v>
@@ -8901,8 +8835,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A228" s="3" t="s">
+    <row r="228" spans="1:10">
+      <c r="A228" t="s">
         <v>32</v>
       </c>
       <c r="B228" t="s">
@@ -8912,16 +8846,16 @@
         <v>548</v>
       </c>
       <c r="E228">
-        <v>32.700000000000003</v>
+        <v>32.7</v>
       </c>
       <c r="F228">
         <v>79.5</v>
       </c>
       <c r="G228">
-        <v>80.400000000000006</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="H228">
-        <v>34.799999999999997</v>
+        <v>34.8</v>
       </c>
       <c r="I228">
         <v>0</v>
@@ -8930,8 +8864,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A229" s="3" t="s">
+    <row r="229" spans="1:10">
+      <c r="A229" t="s">
         <v>32</v>
       </c>
       <c r="B229" t="s">
@@ -8941,10 +8875,10 @@
         <v>554</v>
       </c>
       <c r="E229">
-        <v>32.299999999999997</v>
+        <v>32.3</v>
       </c>
       <c r="F229">
-        <v>90.4</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="G229">
         <v>88.7</v>
@@ -8959,8 +8893,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A230" s="3" t="s">
+    <row r="230" spans="1:10">
+      <c r="A230" t="s">
         <v>32</v>
       </c>
       <c r="B230" t="s">
@@ -8973,10 +8907,10 @@
         <v>41.9</v>
       </c>
       <c r="F230">
-        <v>74.599999999999994</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="G230">
-        <v>87.1</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="H230">
         <v>30.3</v>
@@ -8988,8 +8922,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A231" s="3" t="s">
+    <row r="231" spans="1:10">
+      <c r="A231" t="s">
         <v>32</v>
       </c>
       <c r="B231" t="s">
@@ -9017,8 +8951,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A232" s="3" t="s">
+    <row r="232" spans="1:10">
+      <c r="A232" t="s">
         <v>32</v>
       </c>
       <c r="B232" t="s">
@@ -9046,8 +8980,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A233" s="3" t="s">
+    <row r="233" spans="1:10">
+      <c r="A233" t="s">
         <v>32</v>
       </c>
       <c r="B233" t="s">
@@ -9075,8 +9009,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A234" s="3" t="s">
+    <row r="234" spans="1:10">
+      <c r="A234" t="s">
         <v>32</v>
       </c>
       <c r="B234" t="s">
@@ -9089,7 +9023,7 @@
         <v>47</v>
       </c>
       <c r="F234">
-        <v>74.400000000000006</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="G234">
         <v>57.9</v>
@@ -9104,8 +9038,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A235" s="3" t="s">
+    <row r="235" spans="1:10">
+      <c r="A235" t="s">
         <v>32</v>
       </c>
       <c r="B235" t="s">
@@ -9124,7 +9058,7 @@
         <v>76</v>
       </c>
       <c r="H235">
-        <v>40.700000000000003</v>
+        <v>40.7</v>
       </c>
       <c r="I235">
         <v>0</v>
@@ -9133,8 +9067,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A236" s="3" t="s">
+    <row r="236" spans="1:10">
+      <c r="A236" t="s">
         <v>32</v>
       </c>
       <c r="B236" t="s">
@@ -9147,7 +9081,7 @@
         <v>46.3</v>
       </c>
       <c r="F236">
-        <v>79.400000000000006</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="G236">
         <v>35</v>
@@ -9162,8 +9096,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A237" s="3" t="s">
+    <row r="237" spans="1:10">
+      <c r="A237" t="s">
         <v>32</v>
       </c>
       <c r="B237" t="s">
@@ -9191,8 +9125,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A238" s="3" t="s">
+    <row r="238" spans="1:10">
+      <c r="A238" t="s">
         <v>32</v>
       </c>
       <c r="B238" t="s">
@@ -9220,8 +9154,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A239" s="3" t="s">
+    <row r="239" spans="1:10">
+      <c r="A239" t="s">
         <v>32</v>
       </c>
       <c r="B239" t="s">
@@ -9234,10 +9168,10 @@
         <v>28.2</v>
       </c>
       <c r="F239">
-        <v>86.9</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="G239">
-        <v>66.099999999999994</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="H239">
         <v>28.5</v>
@@ -9249,8 +9183,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A240" s="3" t="s">
+    <row r="240" spans="1:10">
+      <c r="A240" t="s">
         <v>32</v>
       </c>
       <c r="B240" t="s">
@@ -9260,13 +9194,13 @@
         <v>551</v>
       </c>
       <c r="E240">
-        <v>39.799999999999997</v>
+        <v>39.8</v>
       </c>
       <c r="F240">
-        <v>71.900000000000006</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="G240">
-        <v>70.400000000000006</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="H240">
         <v>27.6</v>
@@ -9278,8 +9212,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A241" s="3" t="s">
+    <row r="241" spans="1:10">
+      <c r="A241" t="s">
         <v>32</v>
       </c>
       <c r="B241" t="s">
@@ -9307,8 +9241,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A242" s="3" t="s">
+    <row r="242" spans="1:10">
+      <c r="A242" t="s">
         <v>32</v>
       </c>
       <c r="B242" t="s">
@@ -9336,8 +9270,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A243" s="3" t="s">
+    <row r="243" spans="1:10">
+      <c r="A243" t="s">
         <v>32</v>
       </c>
       <c r="B243" t="s">
@@ -9350,7 +9284,7 @@
         <v>31.2</v>
       </c>
       <c r="F243">
-        <v>80.099999999999994</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="G243">
         <v>87.8</v>
@@ -9365,8 +9299,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A244" s="3" t="s">
+    <row r="244" spans="1:10">
+      <c r="A244" t="s">
         <v>32</v>
       </c>
       <c r="B244" t="s">
@@ -9379,7 +9313,7 @@
         <v>32</v>
       </c>
       <c r="F244">
-        <v>75.400000000000006</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="G244">
         <v>83</v>
@@ -9394,8 +9328,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A245" s="3" t="s">
+    <row r="245" spans="1:10">
+      <c r="A245" t="s">
         <v>32</v>
       </c>
       <c r="B245" t="s">
@@ -9414,7 +9348,7 @@
         <v>71.5</v>
       </c>
       <c r="H245">
-        <v>18.100000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="I245">
         <v>0</v>
@@ -9423,8 +9357,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A246" s="3" t="s">
+    <row r="246" spans="1:10">
+      <c r="A246" t="s">
         <v>32</v>
       </c>
       <c r="B246" t="s">
@@ -9437,13 +9371,13 @@
         <v>38.9</v>
       </c>
       <c r="F246">
-        <v>90.4</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="G246">
         <v>37.1</v>
       </c>
       <c r="H246">
-        <v>18.600000000000001</v>
+        <v>18.6</v>
       </c>
       <c r="I246">
         <v>0</v>
@@ -9452,8 +9386,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A247" s="3" t="s">
+    <row r="247" spans="1:10">
+      <c r="A247" t="s">
         <v>32</v>
       </c>
       <c r="B247" t="s">
@@ -9469,7 +9403,7 @@
         <v>100</v>
       </c>
       <c r="G247">
-        <v>85.4</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="H247">
         <v>15</v>
@@ -9481,8 +9415,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A248" s="3" t="s">
+    <row r="248" spans="1:10">
+      <c r="A248" t="s">
         <v>32</v>
       </c>
       <c r="B248" t="s">
@@ -9495,7 +9429,7 @@
         <v>53.9</v>
       </c>
       <c r="F248">
-        <v>78.599999999999994</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="G248">
         <v>34.6</v>
@@ -9510,8 +9444,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A249" s="3" t="s">
+    <row r="249" spans="1:10">
+      <c r="A249" t="s">
         <v>32</v>
       </c>
       <c r="B249" t="s">
@@ -9539,8 +9473,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A250" s="3" t="s">
+    <row r="250" spans="1:10">
+      <c r="A250" t="s">
         <v>32</v>
       </c>
       <c r="B250" t="s">
@@ -9556,7 +9490,7 @@
         <v>79.5</v>
       </c>
       <c r="G250">
-        <v>82.1</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="H250">
         <v>29.1</v>
@@ -9568,8 +9502,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A251" s="3" t="s">
+    <row r="251" spans="1:10">
+      <c r="A251" t="s">
         <v>32</v>
       </c>
       <c r="B251" t="s">
@@ -9585,7 +9519,7 @@
         <v>69.3</v>
       </c>
       <c r="G251">
-        <v>73.099999999999994</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="H251">
         <v>35.5</v>
@@ -9597,8 +9531,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A252" s="3" t="s">
+    <row r="252" spans="1:10">
+      <c r="A252" t="s">
         <v>32</v>
       </c>
       <c r="B252" t="s">
@@ -9611,13 +9545,13 @@
         <v>31.5</v>
       </c>
       <c r="F252">
-        <v>74.599999999999994</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="G252">
         <v>78.2</v>
       </c>
       <c r="H252">
-        <v>32.700000000000003</v>
+        <v>32.7</v>
       </c>
       <c r="I252">
         <v>0</v>
@@ -9626,8 +9560,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A253" s="3" t="s">
+    <row r="253" spans="1:10">
+      <c r="A253" t="s">
         <v>32</v>
       </c>
       <c r="B253" t="s">
@@ -9655,8 +9589,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A254" s="3" t="s">
+    <row r="254" spans="1:10">
+      <c r="A254" t="s">
         <v>32</v>
       </c>
       <c r="B254" t="s">
@@ -9666,7 +9600,7 @@
         <v>537</v>
       </c>
       <c r="E254">
-        <v>36.700000000000003</v>
+        <v>36.7</v>
       </c>
       <c r="F254">
         <v>76.8</v>
@@ -9684,8 +9618,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A255" s="3" t="s">
+    <row r="255" spans="1:10">
+      <c r="A255" t="s">
         <v>32</v>
       </c>
       <c r="B255" t="s">
@@ -9701,7 +9635,7 @@
         <v>89.5</v>
       </c>
       <c r="G255">
-        <v>79.099999999999994</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="H255">
         <v>27.9</v>
@@ -9713,8 +9647,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A256" s="3" t="s">
+    <row r="256" spans="1:10">
+      <c r="A256" t="s">
         <v>32</v>
       </c>
       <c r="B256" t="s">
@@ -9727,7 +9661,7 @@
         <v>34.5</v>
       </c>
       <c r="F256">
-        <v>90.4</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="G256">
         <v>48.5</v>
@@ -9742,8 +9676,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A257" s="3" t="s">
+    <row r="257" spans="1:10">
+      <c r="A257" t="s">
         <v>32</v>
       </c>
       <c r="B257" t="s">
@@ -9759,7 +9693,7 @@
         <v>78.8</v>
       </c>
       <c r="G257">
-        <v>87.4</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="H257">
         <v>23.5</v>
@@ -9771,8 +9705,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A258" s="3" t="s">
+    <row r="258" spans="1:10">
+      <c r="A258" t="s">
         <v>32</v>
       </c>
       <c r="B258" t="s">
@@ -9785,7 +9719,7 @@
         <v>34.4</v>
       </c>
       <c r="F258">
-        <v>79.599999999999994</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="G258">
         <v>87</v>
@@ -9800,8 +9734,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A259" s="3" t="s">
+    <row r="259" spans="1:10">
+      <c r="A259" t="s">
         <v>32</v>
       </c>
       <c r="B259" t="s">
@@ -9811,16 +9745,16 @@
         <v>544</v>
       </c>
       <c r="E259">
-        <v>33.700000000000003</v>
+        <v>33.7</v>
       </c>
       <c r="F259">
-        <v>70.900000000000006</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="G259">
         <v>72</v>
       </c>
       <c r="H259">
-        <v>33.799999999999997</v>
+        <v>33.8</v>
       </c>
       <c r="I259">
         <v>0</v>
@@ -9829,8 +9763,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A260" s="3" t="s">
+    <row r="260" spans="1:10">
+      <c r="A260" t="s">
         <v>32</v>
       </c>
       <c r="B260" t="s">
@@ -9843,10 +9777,10 @@
         <v>43</v>
       </c>
       <c r="F260">
-        <v>70.099999999999994</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="G260">
-        <v>73.599999999999994</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="H260">
         <v>27.9</v>
@@ -9858,8 +9792,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A261" s="3" t="s">
+    <row r="261" spans="1:10">
+      <c r="A261" t="s">
         <v>32</v>
       </c>
       <c r="B261" t="s">
@@ -9875,7 +9809,7 @@
         <v>71.8</v>
       </c>
       <c r="G261">
-        <v>67.400000000000006</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="H261">
         <v>44.6</v>
@@ -9887,8 +9821,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A262" s="3" t="s">
+    <row r="262" spans="1:10">
+      <c r="A262" t="s">
         <v>32</v>
       </c>
       <c r="B262" t="s">
@@ -9901,13 +9835,13 @@
         <v>23.8</v>
       </c>
       <c r="F262">
-        <v>96.9</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="G262">
-        <v>79.099999999999994</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="H262">
-        <v>17.600000000000001</v>
+        <v>17.6</v>
       </c>
       <c r="I262">
         <v>0</v>
@@ -9916,8 +9850,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A263" s="3" t="s">
+    <row r="263" spans="1:10">
+      <c r="A263" t="s">
         <v>32</v>
       </c>
       <c r="B263" t="s">
@@ -9930,7 +9864,7 @@
         <v>43.6</v>
       </c>
       <c r="F263">
-        <v>71.900000000000006</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="G263">
         <v>84.5</v>
@@ -9945,8 +9879,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A264" s="3" t="s">
+    <row r="264" spans="1:10">
+      <c r="A264" t="s">
         <v>32</v>
       </c>
       <c r="B264" t="s">
@@ -9959,10 +9893,10 @@
         <v>36.1</v>
       </c>
       <c r="F264">
-        <v>73.599999999999994</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="G264">
-        <v>75.900000000000006</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="H264">
         <v>26</v>
@@ -9974,8 +9908,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A265" s="3" t="s">
+    <row r="265" spans="1:10">
+      <c r="A265" t="s">
         <v>32</v>
       </c>
       <c r="B265" t="s">
@@ -9991,10 +9925,10 @@
         <v>69.2</v>
       </c>
       <c r="G265">
-        <v>72.900000000000006</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="H265">
-        <v>38.799999999999997</v>
+        <v>38.8</v>
       </c>
       <c r="I265">
         <v>0</v>
@@ -10003,8 +9937,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A266" s="3" t="s">
+    <row r="266" spans="1:10">
+      <c r="A266" t="s">
         <v>32</v>
       </c>
       <c r="B266" t="s">
@@ -10014,7 +9948,7 @@
         <v>538</v>
       </c>
       <c r="E266">
-        <v>33.200000000000003</v>
+        <v>33.2</v>
       </c>
       <c r="F266">
         <v>76.2</v>
@@ -10032,8 +9966,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A267" s="3" t="s">
+    <row r="267" spans="1:10">
+      <c r="A267" t="s">
         <v>32</v>
       </c>
       <c r="B267" t="s">
@@ -10046,10 +9980,10 @@
         <v>29.1</v>
       </c>
       <c r="F267">
-        <v>75.599999999999994</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="G267">
-        <v>67.400000000000006</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="H267">
         <v>33</v>
@@ -10061,8 +9995,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A268" s="3" t="s">
+    <row r="268" spans="1:10">
+      <c r="A268" t="s">
         <v>32</v>
       </c>
       <c r="B268" t="s">
@@ -10075,7 +10009,7 @@
         <v>27</v>
       </c>
       <c r="F268">
-        <v>78.099999999999994</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="G268">
         <v>77.7</v>
@@ -10090,8 +10024,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A269" s="3" t="s">
+    <row r="269" spans="1:10">
+      <c r="A269" t="s">
         <v>32</v>
       </c>
       <c r="B269" t="s">
@@ -10104,7 +10038,7 @@
         <v>37.6</v>
       </c>
       <c r="F269">
-        <v>81.900000000000006</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="G269">
         <v>73.5</v>
@@ -10119,8 +10053,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A270" s="3" t="s">
+    <row r="270" spans="1:10">
+      <c r="A270" t="s">
         <v>32</v>
       </c>
       <c r="B270" t="s">
@@ -10130,10 +10064,10 @@
         <v>535</v>
       </c>
       <c r="E270">
-        <v>32.700000000000003</v>
+        <v>32.7</v>
       </c>
       <c r="F270">
-        <v>81.099999999999994</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="G270">
         <v>69</v>
@@ -10148,8 +10082,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A271" s="3" t="s">
+    <row r="271" spans="1:10">
+      <c r="A271" t="s">
         <v>32</v>
       </c>
       <c r="B271" t="s">
@@ -10162,10 +10096,10 @@
         <v>38.1</v>
       </c>
       <c r="F271">
-        <v>70.400000000000006</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="G271">
-        <v>72.099999999999994</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="H271">
         <v>29.1</v>
@@ -10177,8 +10111,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A272" s="3" t="s">
+    <row r="272" spans="1:10">
+      <c r="A272" t="s">
         <v>32</v>
       </c>
       <c r="B272" t="s">
@@ -10191,10 +10125,10 @@
         <v>46.1</v>
       </c>
       <c r="F272">
-        <v>84.6</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="G272">
-        <v>36.200000000000003</v>
+        <v>36.2</v>
       </c>
       <c r="H272">
         <v>13.1</v>
@@ -10206,8 +10140,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A273" s="3" t="s">
+    <row r="273" spans="1:10">
+      <c r="A273" t="s">
         <v>32</v>
       </c>
       <c r="B273" t="s">
@@ -10220,13 +10154,13 @@
         <v>26.1</v>
       </c>
       <c r="F273">
-        <v>77.400000000000006</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="G273">
-        <v>87.9</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="H273">
-        <v>34.799999999999997</v>
+        <v>34.8</v>
       </c>
       <c r="I273">
         <v>0</v>
@@ -10235,8 +10169,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A274" s="3" t="s">
+    <row r="274" spans="1:10">
+      <c r="A274" t="s">
         <v>32</v>
       </c>
       <c r="B274" t="s">
@@ -10246,7 +10180,7 @@
         <v>537</v>
       </c>
       <c r="E274">
-        <v>36.700000000000003</v>
+        <v>36.7</v>
       </c>
       <c r="F274">
         <v>71.5</v>
@@ -10264,8 +10198,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A275" s="3" t="s">
+    <row r="275" spans="1:10">
+      <c r="A275" t="s">
         <v>32</v>
       </c>
       <c r="B275" t="s">
@@ -10278,10 +10212,10 @@
         <v>44.5</v>
       </c>
       <c r="F275">
-        <v>68.099999999999994</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="G275">
-        <v>79.900000000000006</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="H275">
         <v>24.2</v>
@@ -10293,8 +10227,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A276" s="3" t="s">
+    <row r="276" spans="1:10">
+      <c r="A276" t="s">
         <v>32</v>
       </c>
       <c r="B276" t="s">
@@ -10304,16 +10238,16 @@
         <v>544</v>
       </c>
       <c r="E276">
-        <v>37.700000000000003</v>
+        <v>37.7</v>
       </c>
       <c r="F276">
-        <v>73.599999999999994</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="G276">
         <v>75.7</v>
       </c>
       <c r="H276">
-        <v>39.200000000000003</v>
+        <v>39.2</v>
       </c>
       <c r="I276">
         <v>0</v>
@@ -10322,8 +10256,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A277" s="3" t="s">
+    <row r="277" spans="1:10">
+      <c r="A277" t="s">
         <v>32</v>
       </c>
       <c r="B277" t="s">
@@ -10351,8 +10285,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A278" s="3" t="s">
+    <row r="278" spans="1:10">
+      <c r="A278" t="s">
         <v>32</v>
       </c>
       <c r="B278" t="s">
@@ -10362,10 +10296,10 @@
         <v>537</v>
       </c>
       <c r="E278">
-        <v>39.299999999999997</v>
+        <v>39.3</v>
       </c>
       <c r="F278">
-        <v>74.400000000000006</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="G278">
         <v>81.7</v>
@@ -10380,8 +10314,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A279" s="3" t="s">
+    <row r="279" spans="1:10">
+      <c r="A279" t="s">
         <v>32</v>
       </c>
       <c r="B279" t="s">
@@ -10391,7 +10325,7 @@
         <v>541</v>
       </c>
       <c r="E279">
-        <v>33.200000000000003</v>
+        <v>33.2</v>
       </c>
       <c r="F279">
         <v>72.3</v>
@@ -10400,7 +10334,7 @@
         <v>74.8</v>
       </c>
       <c r="H279">
-        <v>32.700000000000003</v>
+        <v>32.7</v>
       </c>
       <c r="I279">
         <v>0</v>
@@ -10409,8 +10343,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A280" s="3" t="s">
+    <row r="280" spans="1:10">
+      <c r="A280" t="s">
         <v>32</v>
       </c>
       <c r="B280" t="s">
@@ -10420,13 +10354,13 @@
         <v>558</v>
       </c>
       <c r="E280">
-        <v>36.799999999999997</v>
+        <v>36.8</v>
       </c>
       <c r="F280">
         <v>68.5</v>
       </c>
       <c r="G280">
-        <v>76.900000000000006</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="H280">
         <v>29.7</v>
@@ -10438,8 +10372,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A281" s="3" t="s">
+    <row r="281" spans="1:10">
+      <c r="A281" t="s">
         <v>32</v>
       </c>
       <c r="B281" t="s">
@@ -10467,8 +10401,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A282" s="3" t="s">
+    <row r="282" spans="1:10">
+      <c r="A282" t="s">
         <v>32</v>
       </c>
       <c r="B282" t="s">
@@ -10478,16 +10412,16 @@
         <v>543</v>
       </c>
       <c r="E282">
-        <v>40.200000000000003</v>
+        <v>40.2</v>
       </c>
       <c r="F282">
         <v>68</v>
       </c>
       <c r="G282">
-        <v>81.900000000000006</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="H282">
-        <v>37.200000000000003</v>
+        <v>37.2</v>
       </c>
       <c r="I282">
         <v>0</v>
@@ -10496,8 +10430,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A283" s="3" t="s">
+    <row r="283" spans="1:10">
+      <c r="A283" t="s">
         <v>32</v>
       </c>
       <c r="B283" t="s">
@@ -10507,16 +10441,16 @@
         <v>544</v>
       </c>
       <c r="E283">
-        <v>36.700000000000003</v>
+        <v>36.7</v>
       </c>
       <c r="F283">
         <v>70</v>
       </c>
       <c r="G283">
-        <v>78.099999999999994</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="H283">
-        <v>38.299999999999997</v>
+        <v>38.3</v>
       </c>
       <c r="I283">
         <v>0</v>
@@ -10525,8 +10459,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A284" s="3" t="s">
+    <row r="284" spans="1:10">
+      <c r="A284" t="s">
         <v>32</v>
       </c>
       <c r="B284" t="s">
@@ -10542,7 +10476,7 @@
         <v>80.3</v>
       </c>
       <c r="G284">
-        <v>66.099999999999994</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="H284">
         <v>25.6</v>
@@ -10554,8 +10488,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A285" s="3" t="s">
+    <row r="285" spans="1:10">
+      <c r="A285" t="s">
         <v>32</v>
       </c>
       <c r="B285" t="s">
@@ -10565,7 +10499,7 @@
         <v>537</v>
       </c>
       <c r="E285">
-        <v>36.700000000000003</v>
+        <v>36.7</v>
       </c>
       <c r="F285">
         <v>72.2</v>
@@ -10574,7 +10508,7 @@
         <v>79.3</v>
       </c>
       <c r="H285">
-        <v>32.200000000000003</v>
+        <v>32.2</v>
       </c>
       <c r="I285">
         <v>0</v>
@@ -10583,8 +10517,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A286" s="3" t="s">
+    <row r="286" spans="1:10">
+      <c r="A286" t="s">
         <v>32</v>
       </c>
       <c r="B286" t="s">
@@ -10597,13 +10531,13 @@
         <v>36.5</v>
       </c>
       <c r="F286">
-        <v>72.099999999999994</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="G286">
-        <v>81.599999999999994</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="H286">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
       <c r="I286">
         <v>0</v>
@@ -10612,8 +10546,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A287" s="3" t="s">
+    <row r="287" spans="1:10">
+      <c r="A287" t="s">
         <v>32</v>
       </c>
       <c r="B287" t="s">
@@ -10623,13 +10557,13 @@
         <v>544</v>
       </c>
       <c r="E287">
-        <v>37.200000000000003</v>
+        <v>37.2</v>
       </c>
       <c r="F287">
         <v>69.2</v>
       </c>
       <c r="G287">
-        <v>71.099999999999994</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="H287">
         <v>35</v>
@@ -10641,8 +10575,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A288" s="3" t="s">
+    <row r="288" spans="1:10">
+      <c r="A288" t="s">
         <v>32</v>
       </c>
       <c r="B288" t="s">
@@ -10658,10 +10592,10 @@
         <v>73.2</v>
       </c>
       <c r="G288">
-        <v>81.099999999999994</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="H288">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="I288">
         <v>26.4</v>
@@ -10670,8 +10604,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A289" s="3" t="s">
+    <row r="289" spans="1:10">
+      <c r="A289" t="s">
         <v>32</v>
       </c>
       <c r="B289" t="s">
@@ -10681,13 +10615,13 @@
         <v>549</v>
       </c>
       <c r="E289">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
       <c r="F289">
         <v>74.8</v>
       </c>
       <c r="G289">
-        <v>83.1</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="H289">
         <v>31.7</v>
@@ -10699,8 +10633,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A290" s="3" t="s">
+    <row r="290" spans="1:10">
+      <c r="A290" t="s">
         <v>32</v>
       </c>
       <c r="B290" t="s">
@@ -10716,7 +10650,7 @@
         <v>97</v>
       </c>
       <c r="G290">
-        <v>87.1</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="H290">
         <v>13.8</v>
@@ -10728,8 +10662,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A291" s="3" t="s">
+    <row r="291" spans="1:10">
+      <c r="A291" t="s">
         <v>32</v>
       </c>
       <c r="B291" t="s">
@@ -10748,7 +10682,7 @@
         <v>58.3</v>
       </c>
       <c r="H291">
-        <v>33.799999999999997</v>
+        <v>33.8</v>
       </c>
       <c r="I291">
         <v>16.7</v>
@@ -10757,8 +10691,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A292" s="3" t="s">
+    <row r="292" spans="1:10">
+      <c r="A292" t="s">
         <v>32</v>
       </c>
       <c r="B292" t="s">
@@ -10768,13 +10702,13 @@
         <v>560</v>
       </c>
       <c r="E292">
-        <v>36.799999999999997</v>
+        <v>36.8</v>
       </c>
       <c r="F292">
         <v>71.2</v>
       </c>
       <c r="G292">
-        <v>86.4</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="H292">
         <v>34</v>
@@ -10786,8 +10720,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A293" s="3" t="s">
+    <row r="293" spans="1:10">
+      <c r="A293" t="s">
         <v>32</v>
       </c>
       <c r="B293" t="s">
@@ -10815,8 +10749,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A294" s="3" t="s">
+    <row r="294" spans="1:10">
+      <c r="A294" t="s">
         <v>32</v>
       </c>
       <c r="B294" t="s">
@@ -10835,7 +10769,7 @@
         <v>74.5</v>
       </c>
       <c r="H294">
-        <v>33.799999999999997</v>
+        <v>33.8</v>
       </c>
       <c r="I294">
         <v>0</v>
@@ -10844,8 +10778,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A295" s="3" t="s">
+    <row r="295" spans="1:10">
+      <c r="A295" t="s">
         <v>32</v>
       </c>
       <c r="B295" t="s">
@@ -10858,7 +10792,7 @@
         <v>41.7</v>
       </c>
       <c r="F295">
-        <v>70.400000000000006</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="G295">
         <v>74.5</v>
@@ -10873,8 +10807,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A296" s="3" t="s">
+    <row r="296" spans="1:10">
+      <c r="A296" t="s">
         <v>32</v>
       </c>
       <c r="B296" t="s">
@@ -10902,8 +10836,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A297" s="3" t="s">
+    <row r="297" spans="1:10">
+      <c r="A297" t="s">
         <v>32</v>
       </c>
       <c r="B297" t="s">
@@ -10931,8 +10865,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A298" s="3" t="s">
+    <row r="298" spans="1:10">
+      <c r="A298" t="s">
         <v>32</v>
       </c>
       <c r="B298" t="s">
@@ -10942,7 +10876,7 @@
         <v>535</v>
       </c>
       <c r="E298">
-        <v>35.299999999999997</v>
+        <v>35.3</v>
       </c>
       <c r="F298">
         <v>81.3</v>
@@ -10960,8 +10894,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A299" s="3" t="s">
+    <row r="299" spans="1:10">
+      <c r="A299" t="s">
         <v>32</v>
       </c>
       <c r="B299" t="s">
@@ -10974,13 +10908,13 @@
         <v>40.4</v>
       </c>
       <c r="F299">
-        <v>83.1</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="G299">
         <v>45.5</v>
       </c>
       <c r="H299">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="I299">
         <v>0</v>
@@ -10989,8 +10923,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A300" s="3" t="s">
+    <row r="300" spans="1:10">
+      <c r="A300" t="s">
         <v>32</v>
       </c>
       <c r="B300" t="s">
@@ -11000,16 +10934,16 @@
         <v>536</v>
       </c>
       <c r="E300">
-        <v>33.700000000000003</v>
+        <v>33.7</v>
       </c>
       <c r="F300">
-        <v>89.6</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="G300">
         <v>44.3</v>
       </c>
       <c r="H300">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="I300">
         <v>0</v>
@@ -11018,8 +10952,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A301" s="3" t="s">
+    <row r="301" spans="1:10">
+      <c r="A301" t="s">
         <v>32</v>
       </c>
       <c r="B301" t="s">
@@ -11032,7 +10966,7 @@
         <v>47.2</v>
       </c>
       <c r="F301">
-        <v>76.900000000000006</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="G301">
         <v>44.5</v>
@@ -11047,8 +10981,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A302" s="3" t="s">
+    <row r="302" spans="1:10">
+      <c r="A302" t="s">
         <v>33</v>
       </c>
       <c r="B302" t="s">
@@ -11076,8 +11010,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A303" s="3" t="s">
+    <row r="303" spans="1:10">
+      <c r="A303" t="s">
         <v>33</v>
       </c>
       <c r="B303" t="s">
@@ -11090,7 +11024,7 @@
         <v>36.6</v>
       </c>
       <c r="F303">
-        <v>76.599999999999994</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="G303">
         <v>39.4</v>
@@ -11105,8 +11039,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A304" s="3" t="s">
+    <row r="304" spans="1:10">
+      <c r="A304" t="s">
         <v>33</v>
       </c>
       <c r="B304" t="s">
@@ -11116,7 +11050,7 @@
         <v>536</v>
       </c>
       <c r="E304">
-        <v>35.200000000000003</v>
+        <v>35.2</v>
       </c>
       <c r="F304">
         <v>79.8</v>
@@ -11134,8 +11068,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A305" s="3" t="s">
+    <row r="305" spans="1:10">
+      <c r="A305" t="s">
         <v>33</v>
       </c>
       <c r="B305" t="s">
@@ -11151,7 +11085,7 @@
         <v>70</v>
       </c>
       <c r="G305">
-        <v>75.900000000000006</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="H305">
         <v>28.5</v>
@@ -11163,8 +11097,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A306" s="3" t="s">
+    <row r="306" spans="1:10">
+      <c r="A306" t="s">
         <v>33</v>
       </c>
       <c r="B306" t="s">
@@ -11174,13 +11108,13 @@
         <v>561</v>
       </c>
       <c r="E306">
-        <v>40.200000000000003</v>
+        <v>40.2</v>
       </c>
       <c r="F306">
         <v>60.4</v>
       </c>
       <c r="G306">
-        <v>72.599999999999994</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="H306">
         <v>29.4</v>
@@ -11192,8 +11126,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A307" s="3" t="s">
+    <row r="307" spans="1:10">
+      <c r="A307" t="s">
         <v>33</v>
       </c>
       <c r="B307" t="s">
@@ -11212,7 +11146,7 @@
         <v>48.7</v>
       </c>
       <c r="H307">
-        <v>17.100000000000001</v>
+        <v>17.1</v>
       </c>
       <c r="I307">
         <v>0</v>
@@ -11221,8 +11155,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A308" s="3" t="s">
+    <row r="308" spans="1:10">
+      <c r="A308" t="s">
         <v>33</v>
       </c>
       <c r="B308" t="s">
@@ -11241,7 +11175,7 @@
         <v>38.4</v>
       </c>
       <c r="H308">
-        <v>19.899999999999999</v>
+        <v>19.9</v>
       </c>
       <c r="I308">
         <v>0</v>
@@ -11250,8 +11184,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A309" s="3" t="s">
+    <row r="309" spans="1:10">
+      <c r="A309" t="s">
         <v>33</v>
       </c>
       <c r="B309" t="s">
@@ -11264,13 +11198,13 @@
         <v>38.6</v>
       </c>
       <c r="F309">
-        <v>76.099999999999994</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="G309">
         <v>44.8</v>
       </c>
       <c r="H309">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="I309">
         <v>0</v>
@@ -11279,8 +11213,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A310" s="3" t="s">
+    <row r="310" spans="1:10">
+      <c r="A310" t="s">
         <v>33</v>
       </c>
       <c r="B310" t="s">
@@ -11299,7 +11233,7 @@
         <v>58.5</v>
       </c>
       <c r="H310">
-        <v>18.100000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="I310">
         <v>0</v>
@@ -11308,8 +11242,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A311" s="3" t="s">
+    <row r="311" spans="1:10">
+      <c r="A311" t="s">
         <v>33</v>
       </c>
       <c r="B311" t="s">
@@ -11322,7 +11256,7 @@
         <v>24.5</v>
       </c>
       <c r="F311">
-        <v>79.900000000000006</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="G311">
         <v>71.2</v>
@@ -11337,8 +11271,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A312" s="3" t="s">
+    <row r="312" spans="1:10">
+      <c r="A312" t="s">
         <v>33</v>
       </c>
       <c r="B312" t="s">
@@ -11354,10 +11288,10 @@
         <v>80.2</v>
       </c>
       <c r="G312">
-        <v>81.900000000000006</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="H312">
-        <v>17.600000000000001</v>
+        <v>17.6</v>
       </c>
       <c r="I312">
         <v>0</v>
@@ -11366,8 +11300,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A313" s="3" t="s">
+    <row r="313" spans="1:10">
+      <c r="A313" t="s">
         <v>33</v>
       </c>
       <c r="B313" t="s">
@@ -11395,8 +11329,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A314" s="3" t="s">
+    <row r="314" spans="1:10">
+      <c r="A314" t="s">
         <v>33</v>
       </c>
       <c r="B314" t="s">
@@ -11424,8 +11358,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A315" s="3" t="s">
+    <row r="315" spans="1:10">
+      <c r="A315" t="s">
         <v>33</v>
       </c>
       <c r="B315" t="s">
@@ -11453,8 +11387,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A316" s="3" t="s">
+    <row r="316" spans="1:10">
+      <c r="A316" t="s">
         <v>33</v>
       </c>
       <c r="B316" t="s">
@@ -11467,7 +11401,7 @@
         <v>24.6</v>
       </c>
       <c r="F316">
-        <v>98.1</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="G316">
         <v>54.4</v>
@@ -11482,8 +11416,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A317" s="3" t="s">
+    <row r="317" spans="1:10">
+      <c r="A317" t="s">
         <v>33</v>
       </c>
       <c r="B317" t="s">
@@ -11493,7 +11427,7 @@
         <v>536</v>
       </c>
       <c r="E317">
-        <v>40.799999999999997</v>
+        <v>40.8</v>
       </c>
       <c r="F317">
         <v>80</v>
@@ -11502,7 +11436,7 @@
         <v>42.7</v>
       </c>
       <c r="H317">
-        <v>19.899999999999999</v>
+        <v>19.9</v>
       </c>
       <c r="I317">
         <v>0</v>
@@ -11511,8 +11445,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A318" s="3" t="s">
+    <row r="318" spans="1:10">
+      <c r="A318" t="s">
         <v>33</v>
       </c>
       <c r="B318" t="s">
@@ -11525,13 +11459,13 @@
         <v>35.6</v>
       </c>
       <c r="F318">
-        <v>80.900000000000006</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="G318">
         <v>37.6</v>
       </c>
       <c r="H318">
-        <v>19.899999999999999</v>
+        <v>19.9</v>
       </c>
       <c r="I318">
         <v>0</v>
@@ -11540,8 +11474,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A319" s="3" t="s">
+    <row r="319" spans="1:10">
+      <c r="A319" t="s">
         <v>33</v>
       </c>
       <c r="B319" t="s">
@@ -11554,13 +11488,13 @@
         <v>37.6</v>
       </c>
       <c r="F319">
-        <v>85.4</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="G319">
         <v>44.5</v>
       </c>
       <c r="H319">
-        <v>16.600000000000001</v>
+        <v>16.6</v>
       </c>
       <c r="I319">
         <v>0</v>
@@ -11569,8 +11503,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A320" s="3" t="s">
+    <row r="320" spans="1:10">
+      <c r="A320" t="s">
         <v>33</v>
       </c>
       <c r="B320" t="s">
@@ -11583,13 +11517,13 @@
         <v>35.9</v>
       </c>
       <c r="F320">
-        <v>80.400000000000006</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="G320">
         <v>53.6</v>
       </c>
       <c r="H320">
-        <v>16.600000000000001</v>
+        <v>16.6</v>
       </c>
       <c r="I320">
         <v>0</v>
@@ -11598,8 +11532,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A321" s="3" t="s">
+    <row r="321" spans="1:10">
+      <c r="A321" t="s">
         <v>33</v>
       </c>
       <c r="B321" t="s">
@@ -11612,7 +11546,7 @@
         <v>37.9</v>
       </c>
       <c r="F321">
-        <v>65.599999999999994</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="G321">
         <v>54</v>
@@ -11627,8 +11561,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A322" s="3" t="s">
+    <row r="322" spans="1:10">
+      <c r="A322" t="s">
         <v>33</v>
       </c>
       <c r="B322" t="s">
@@ -11656,8 +11590,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A323" s="3" t="s">
+    <row r="323" spans="1:10">
+      <c r="A323" t="s">
         <v>33</v>
       </c>
       <c r="B323" t="s">
@@ -11670,10 +11604,10 @@
         <v>25.2</v>
       </c>
       <c r="F323">
-        <v>76.900000000000006</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="G323">
-        <v>73.400000000000006</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="H323">
         <v>23.9</v>
@@ -11685,8 +11619,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A324" s="3" t="s">
+    <row r="324" spans="1:10">
+      <c r="A324" t="s">
         <v>33</v>
       </c>
       <c r="B324" t="s">
@@ -11699,7 +11633,7 @@
         <v>29.5</v>
       </c>
       <c r="F324">
-        <v>84.9</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="G324">
         <v>46.1</v>
@@ -11714,8 +11648,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A325" s="3" t="s">
+    <row r="325" spans="1:10">
+      <c r="A325" t="s">
         <v>33</v>
       </c>
       <c r="B325" t="s">
@@ -11743,8 +11677,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A326" s="3" t="s">
+    <row r="326" spans="1:10">
+      <c r="A326" t="s">
         <v>33</v>
       </c>
       <c r="B326" t="s">
@@ -11757,7 +11691,7 @@
         <v>26.8</v>
       </c>
       <c r="F326">
-        <v>82.4</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="G326">
         <v>85.5</v>
@@ -11772,8 +11706,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A327" s="3" t="s">
+    <row r="327" spans="1:10">
+      <c r="A327" t="s">
         <v>33</v>
       </c>
       <c r="B327" t="s">
@@ -11786,7 +11720,7 @@
         <v>26.8</v>
       </c>
       <c r="F327">
-        <v>71.099999999999994</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="G327">
         <v>83.8</v>
@@ -11801,8 +11735,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A328" s="3" t="s">
+    <row r="328" spans="1:10">
+      <c r="A328" t="s">
         <v>33</v>
       </c>
       <c r="B328" t="s">
@@ -11830,8 +11764,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A329" s="3" t="s">
+    <row r="329" spans="1:10">
+      <c r="A329" t="s">
         <v>33</v>
       </c>
       <c r="B329" t="s">
@@ -11844,10 +11778,10 @@
         <v>26.4</v>
       </c>
       <c r="F329">
-        <v>69.400000000000006</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="G329">
-        <v>72.900000000000006</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="H329">
         <v>26.9</v>
@@ -11859,8 +11793,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A330" s="3" t="s">
+    <row r="330" spans="1:10">
+      <c r="A330" t="s">
         <v>33</v>
       </c>
       <c r="B330" t="s">
@@ -11870,13 +11804,13 @@
         <v>541</v>
       </c>
       <c r="E330">
-        <v>32.200000000000003</v>
+        <v>32.2</v>
       </c>
       <c r="F330">
         <v>70</v>
       </c>
       <c r="G330">
-        <v>73.400000000000006</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="H330">
         <v>26.3</v>
@@ -11888,8 +11822,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A331" s="3" t="s">
+    <row r="331" spans="1:10">
+      <c r="A331" t="s">
         <v>33</v>
       </c>
       <c r="B331" t="s">
@@ -11902,7 +11836,7 @@
         <v>32.6</v>
       </c>
       <c r="F331">
-        <v>72.400000000000006</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="G331">
         <v>62.4</v>
@@ -11917,8 +11851,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A332" s="3" t="s">
+    <row r="332" spans="1:10">
+      <c r="A332" t="s">
         <v>33</v>
       </c>
       <c r="B332" t="s">
@@ -11946,8 +11880,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A333" s="3" t="s">
+    <row r="333" spans="1:10">
+      <c r="A333" t="s">
         <v>33</v>
       </c>
       <c r="B333" t="s">
@@ -11975,8 +11909,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A334" s="3" t="s">
+    <row r="334" spans="1:10">
+      <c r="A334" t="s">
         <v>33</v>
       </c>
       <c r="B334" t="s">
@@ -12004,8 +11938,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A335" s="3" t="s">
+    <row r="335" spans="1:10">
+      <c r="A335" t="s">
         <v>33</v>
       </c>
       <c r="B335" t="s">
@@ -12033,8 +11967,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A336" s="3" t="s">
+    <row r="336" spans="1:10">
+      <c r="A336" t="s">
         <v>33</v>
       </c>
       <c r="B336" t="s">
@@ -12047,13 +11981,13 @@
         <v>26.8</v>
       </c>
       <c r="F336">
-        <v>81.900000000000006</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="G336">
         <v>69</v>
       </c>
       <c r="H336">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="I336">
         <v>0</v>
@@ -12062,8 +11996,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A337" s="3" t="s">
+    <row r="337" spans="1:10">
+      <c r="A337" t="s">
         <v>33</v>
       </c>
       <c r="B337" t="s">
@@ -12073,7 +12007,7 @@
         <v>536</v>
       </c>
       <c r="E337">
-        <v>39.299999999999997</v>
+        <v>39.3</v>
       </c>
       <c r="F337">
         <v>77</v>
@@ -12091,8 +12025,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A338" s="3" t="s">
+    <row r="338" spans="1:10">
+      <c r="A338" t="s">
         <v>33</v>
       </c>
       <c r="B338" t="s">
@@ -12102,10 +12036,10 @@
         <v>558</v>
       </c>
       <c r="E338">
-        <v>33.700000000000003</v>
+        <v>33.7</v>
       </c>
       <c r="F338">
-        <v>70.900000000000006</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="G338">
         <v>75.7</v>
@@ -12120,8 +12054,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A339" s="3" t="s">
+    <row r="339" spans="1:10">
+      <c r="A339" t="s">
         <v>33</v>
       </c>
       <c r="B339" t="s">
@@ -12134,10 +12068,10 @@
         <v>27.1</v>
       </c>
       <c r="F339">
-        <v>68.400000000000006</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="G339">
-        <v>74.400000000000006</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="H339">
         <v>29.1</v>
@@ -12149,8 +12083,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A340" s="3" t="s">
+    <row r="340" spans="1:10">
+      <c r="A340" t="s">
         <v>33</v>
       </c>
       <c r="B340" t="s">
@@ -12163,13 +12097,13 @@
         <v>31.2</v>
       </c>
       <c r="F340">
-        <v>73.599999999999994</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="G340">
-        <v>84.9</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="H340">
-        <v>19.899999999999999</v>
+        <v>19.9</v>
       </c>
       <c r="I340">
         <v>0</v>
@@ -12178,8 +12112,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A341" s="3" t="s">
+    <row r="341" spans="1:10">
+      <c r="A341" t="s">
         <v>33</v>
       </c>
       <c r="B341" t="s">
@@ -12192,7 +12126,7 @@
         <v>32.6</v>
       </c>
       <c r="F341">
-        <v>94.1</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="G341">
         <v>41.4</v>
@@ -12207,8 +12141,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A342" s="3" t="s">
+    <row r="342" spans="1:10">
+      <c r="A342" t="s">
         <v>33</v>
       </c>
       <c r="B342" t="s">
@@ -12221,10 +12155,10 @@
         <v>28.9</v>
       </c>
       <c r="F342">
-        <v>83.6</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="G342">
-        <v>74.099999999999994</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="H342">
         <v>19.5</v>
@@ -12236,8 +12170,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A343" s="3" t="s">
+    <row r="343" spans="1:10">
+      <c r="A343" t="s">
         <v>33</v>
       </c>
       <c r="B343" t="s">
@@ -12247,10 +12181,10 @@
         <v>549</v>
       </c>
       <c r="E343">
-        <v>36.200000000000003</v>
+        <v>36.2</v>
       </c>
       <c r="F343">
-        <v>76.400000000000006</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="G343">
         <v>80.8</v>
@@ -12265,8 +12199,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A344" s="3" t="s">
+    <row r="344" spans="1:10">
+      <c r="A344" t="s">
         <v>33</v>
       </c>
       <c r="B344" t="s">
@@ -12279,7 +12213,7 @@
         <v>38.6</v>
       </c>
       <c r="F344">
-        <v>68.900000000000006</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="G344">
         <v>69.2</v>
@@ -12294,8 +12228,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A345" s="3" t="s">
+    <row r="345" spans="1:10">
+      <c r="A345" t="s">
         <v>33</v>
       </c>
       <c r="B345" t="s">
@@ -12314,7 +12248,7 @@
         <v>46.8</v>
       </c>
       <c r="H345">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I345">
         <v>0</v>
@@ -12323,8 +12257,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A346" s="3" t="s">
+    <row r="346" spans="1:10">
+      <c r="A346" t="s">
         <v>33</v>
       </c>
       <c r="B346" t="s">
@@ -12352,8 +12286,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A347" s="3" t="s">
+    <row r="347" spans="1:10">
+      <c r="A347" t="s">
         <v>33</v>
       </c>
       <c r="B347" t="s">
@@ -12366,7 +12300,7 @@
         <v>39</v>
       </c>
       <c r="F347">
-        <v>78.099999999999994</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="G347">
         <v>50.1</v>
@@ -12381,8 +12315,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A348" s="3" t="s">
+    <row r="348" spans="1:10">
+      <c r="A348" t="s">
         <v>33</v>
       </c>
       <c r="B348" t="s">
@@ -12392,13 +12326,13 @@
         <v>544</v>
       </c>
       <c r="E348">
-        <v>33.700000000000003</v>
+        <v>33.7</v>
       </c>
       <c r="F348">
         <v>69.7</v>
       </c>
       <c r="G348">
-        <v>73.400000000000006</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="H348">
         <v>24.9</v>
@@ -12410,8 +12344,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A349" s="3" t="s">
+    <row r="349" spans="1:10">
+      <c r="A349" t="s">
         <v>33</v>
       </c>
       <c r="B349" t="s">
@@ -12439,8 +12373,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A350" s="3" t="s">
+    <row r="350" spans="1:10">
+      <c r="A350" t="s">
         <v>33</v>
       </c>
       <c r="B350" t="s">
@@ -12468,8 +12402,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A351" s="3" t="s">
+    <row r="351" spans="1:10">
+      <c r="A351" t="s">
         <v>33</v>
       </c>
       <c r="B351" t="s">
@@ -12482,7 +12416,7 @@
         <v>24.4</v>
       </c>
       <c r="F351">
-        <v>72.599999999999994</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="G351">
         <v>68.2</v>
@@ -12497,8 +12431,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A352" s="3" t="s">
+    <row r="352" spans="1:10">
+      <c r="A352" t="s">
         <v>33</v>
       </c>
       <c r="B352" t="s">
@@ -12511,7 +12445,7 @@
         <v>37.1</v>
       </c>
       <c r="F352">
-        <v>74.099999999999994</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="G352">
         <v>67.5</v>
@@ -12526,8 +12460,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A353" s="3" t="s">
+    <row r="353" spans="1:10">
+      <c r="A353" t="s">
         <v>33</v>
       </c>
       <c r="B353" t="s">
@@ -12546,7 +12480,7 @@
         <v>79.5</v>
       </c>
       <c r="H353">
-        <v>18.100000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="I353">
         <v>0</v>
@@ -12555,8 +12489,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A354" s="3" t="s">
+    <row r="354" spans="1:10">
+      <c r="A354" t="s">
         <v>33</v>
       </c>
       <c r="B354" t="s">
@@ -12584,8 +12518,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A355" s="3" t="s">
+    <row r="355" spans="1:10">
+      <c r="A355" t="s">
         <v>33</v>
       </c>
       <c r="B355" t="s">
@@ -12598,7 +12532,7 @@
         <v>28.5</v>
       </c>
       <c r="F355">
-        <v>79.599999999999994</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="G355">
         <v>71.2</v>
@@ -12613,8 +12547,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A356" s="3" t="s">
+    <row r="356" spans="1:10">
+      <c r="A356" t="s">
         <v>33</v>
       </c>
       <c r="B356" t="s">
@@ -12627,7 +12561,7 @@
         <v>18.3</v>
       </c>
       <c r="F356">
-        <v>74.099999999999994</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="G356">
         <v>63.3</v>
@@ -12636,14 +12570,14 @@
         <v>28.2</v>
       </c>
       <c r="I356">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J356" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A357" s="3" t="s">
+    <row r="357" spans="1:10">
+      <c r="A357" t="s">
         <v>33</v>
       </c>
       <c r="B357" t="s">
@@ -12662,7 +12596,7 @@
         <v>78.5</v>
       </c>
       <c r="H357">
-        <v>16.600000000000001</v>
+        <v>16.6</v>
       </c>
       <c r="I357">
         <v>0</v>
@@ -12671,8 +12605,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A358" s="3" t="s">
+    <row r="358" spans="1:10">
+      <c r="A358" t="s">
         <v>33</v>
       </c>
       <c r="B358" t="s">
@@ -12700,8 +12634,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A359" s="3" t="s">
+    <row r="359" spans="1:10">
+      <c r="A359" t="s">
         <v>33</v>
       </c>
       <c r="B359" t="s">
@@ -12717,7 +12651,7 @@
         <v>70.2</v>
       </c>
       <c r="G359">
-        <v>84.9</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="H359">
         <v>33.5</v>
@@ -12729,8 +12663,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A360" s="3" t="s">
+    <row r="360" spans="1:10">
+      <c r="A360" t="s">
         <v>33</v>
       </c>
       <c r="B360" t="s">
@@ -12743,7 +12677,7 @@
         <v>33.6</v>
       </c>
       <c r="F360">
-        <v>71.599999999999994</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="G360">
         <v>80.5</v>
@@ -12758,8 +12692,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A361" s="3" t="s">
+    <row r="361" spans="1:10">
+      <c r="A361" t="s">
         <v>33</v>
       </c>
       <c r="B361" t="s">
@@ -12769,7 +12703,7 @@
         <v>535</v>
       </c>
       <c r="E361">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="F361">
         <v>80.5</v>
@@ -12787,8 +12721,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A362" s="3" t="s">
+    <row r="362" spans="1:10">
+      <c r="A362" t="s">
         <v>33</v>
       </c>
       <c r="B362" t="s">
@@ -12816,8 +12750,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A363" s="3" t="s">
+    <row r="363" spans="1:10">
+      <c r="A363" t="s">
         <v>33</v>
       </c>
       <c r="B363" t="s">
@@ -12845,8 +12779,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A364" s="3" t="s">
+    <row r="364" spans="1:10">
+      <c r="A364" t="s">
         <v>33</v>
       </c>
       <c r="B364" t="s">
@@ -12862,7 +12796,7 @@
         <v>78</v>
       </c>
       <c r="G364">
-        <v>65.099999999999994</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="H364">
         <v>23.9</v>
@@ -12874,8 +12808,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A365" s="3" t="s">
+    <row r="365" spans="1:10">
+      <c r="A365" t="s">
         <v>33</v>
       </c>
       <c r="B365" t="s">
@@ -12885,7 +12819,7 @@
         <v>544</v>
       </c>
       <c r="E365">
-        <v>32.700000000000003</v>
+        <v>32.7</v>
       </c>
       <c r="F365">
         <v>72.5</v>
@@ -12903,8 +12837,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A366" s="3" t="s">
+    <row r="366" spans="1:10">
+      <c r="A366" t="s">
         <v>33</v>
       </c>
       <c r="B366" t="s">
@@ -12917,13 +12851,13 @@
         <v>22.5</v>
       </c>
       <c r="F366">
-        <v>80.599999999999994</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="G366">
         <v>82.7</v>
       </c>
       <c r="H366">
-        <v>19.899999999999999</v>
+        <v>19.9</v>
       </c>
       <c r="I366">
         <v>0</v>
@@ -12932,8 +12866,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A367" s="3" t="s">
+    <row r="367" spans="1:10">
+      <c r="A367" t="s">
         <v>33</v>
       </c>
       <c r="B367" t="s">
@@ -12943,7 +12877,7 @@
         <v>544</v>
       </c>
       <c r="E367">
-        <v>32.799999999999997</v>
+        <v>32.8</v>
       </c>
       <c r="F367">
         <v>68.7</v>
@@ -12961,8 +12895,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A368" s="3" t="s">
+    <row r="368" spans="1:10">
+      <c r="A368" t="s">
         <v>33</v>
       </c>
       <c r="B368" t="s">
@@ -12972,13 +12906,13 @@
         <v>555</v>
       </c>
       <c r="E368">
-        <v>32.700000000000003</v>
+        <v>32.7</v>
       </c>
       <c r="F368">
         <v>70</v>
       </c>
       <c r="G368">
-        <v>86.6</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="H368">
         <v>23.9</v>
@@ -12990,8 +12924,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A369" s="3" t="s">
+    <row r="369" spans="1:10">
+      <c r="A369" t="s">
         <v>33</v>
       </c>
       <c r="B369" t="s">
@@ -13004,7 +12938,7 @@
         <v>27.8</v>
       </c>
       <c r="F369">
-        <v>72.099999999999994</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="G369">
         <v>73.2</v>
@@ -13019,8 +12953,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A370" s="3" t="s">
+    <row r="370" spans="1:10">
+      <c r="A370" t="s">
         <v>33</v>
       </c>
       <c r="B370" t="s">
@@ -13033,10 +12967,10 @@
         <v>26.5</v>
       </c>
       <c r="F370">
-        <v>66.099999999999994</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="G370">
-        <v>74.400000000000006</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="H370">
         <v>33</v>
@@ -13048,8 +12982,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A371" s="3" t="s">
+    <row r="371" spans="1:10">
+      <c r="A371" t="s">
         <v>33</v>
       </c>
       <c r="B371" t="s">
@@ -13065,7 +12999,7 @@
         <v>76.7</v>
       </c>
       <c r="G371">
-        <v>79.900000000000006</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="H371">
         <v>7.2</v>
@@ -13077,8 +13011,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A372" s="3" t="s">
+    <row r="372" spans="1:10">
+      <c r="A372" t="s">
         <v>33</v>
       </c>
       <c r="B372" t="s">
@@ -13088,13 +13022,13 @@
         <v>544</v>
       </c>
       <c r="E372">
-        <v>32.299999999999997</v>
+        <v>32.3</v>
       </c>
       <c r="F372">
         <v>66</v>
       </c>
       <c r="G372">
-        <v>72.900000000000006</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="H372">
         <v>32.5</v>
@@ -13106,8 +13040,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A373" s="3" t="s">
+    <row r="373" spans="1:10">
+      <c r="A373" t="s">
         <v>33</v>
       </c>
       <c r="B373" t="s">
@@ -13135,8 +13069,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A374" s="3" t="s">
+    <row r="374" spans="1:10">
+      <c r="A374" t="s">
         <v>33</v>
       </c>
       <c r="B374" t="s">
@@ -13149,13 +13083,13 @@
         <v>23.8</v>
       </c>
       <c r="F374">
-        <v>83.1</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="G374">
         <v>81.3</v>
       </c>
       <c r="H374">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="I374">
         <v>0</v>
@@ -13164,8 +13098,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A375" s="3" t="s">
+    <row r="375" spans="1:10">
+      <c r="A375" t="s">
         <v>33</v>
       </c>
       <c r="B375" t="s">
@@ -13175,16 +13109,16 @@
         <v>543</v>
       </c>
       <c r="E375">
-        <v>35.700000000000003</v>
+        <v>35.7</v>
       </c>
       <c r="F375">
         <v>68.3</v>
       </c>
       <c r="G375">
-        <v>81.599999999999994</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="H375">
-        <v>19.899999999999999</v>
+        <v>19.9</v>
       </c>
       <c r="I375">
         <v>0</v>
@@ -13193,8 +13127,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A376" s="3" t="s">
+    <row r="376" spans="1:10">
+      <c r="A376" t="s">
         <v>33</v>
       </c>
       <c r="B376" t="s">
@@ -13222,8 +13156,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A377" s="3" t="s">
+    <row r="377" spans="1:10">
+      <c r="A377" t="s">
         <v>33</v>
       </c>
       <c r="B377" t="s">
@@ -13251,8 +13185,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A378" s="3" t="s">
+    <row r="378" spans="1:10">
+      <c r="A378" t="s">
         <v>33</v>
       </c>
       <c r="B378" t="s">
@@ -13265,7 +13199,7 @@
         <v>25.7</v>
       </c>
       <c r="F378">
-        <v>84.1</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="G378">
         <v>90.3</v>
@@ -13280,8 +13214,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A379" s="3" t="s">
+    <row r="379" spans="1:10">
+      <c r="A379" t="s">
         <v>33</v>
       </c>
       <c r="B379" t="s">
@@ -13294,10 +13228,10 @@
         <v>34</v>
       </c>
       <c r="F379">
-        <v>70.099999999999994</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="G379">
-        <v>73.400000000000006</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="H379">
         <v>24.9</v>
@@ -13309,8 +13243,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A380" s="3" t="s">
+    <row r="380" spans="1:10">
+      <c r="A380" t="s">
         <v>33</v>
       </c>
       <c r="B380" t="s">
@@ -13338,8 +13272,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A381" s="3" t="s">
+    <row r="381" spans="1:10">
+      <c r="A381" t="s">
         <v>33</v>
       </c>
       <c r="B381" t="s">
@@ -13352,7 +13286,7 @@
         <v>33.5</v>
       </c>
       <c r="F381">
-        <v>68.400000000000006</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="G381">
         <v>74.8</v>
@@ -13367,8 +13301,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A382" s="3" t="s">
+    <row r="382" spans="1:10">
+      <c r="A382" t="s">
         <v>33</v>
       </c>
       <c r="B382" t="s">
@@ -13384,7 +13318,7 @@
         <v>62.2</v>
       </c>
       <c r="G382">
-        <v>66.099999999999994</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="H382">
         <v>20.8</v>
@@ -13396,8 +13330,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A383" s="3" t="s">
+    <row r="383" spans="1:10">
+      <c r="A383" t="s">
         <v>33</v>
       </c>
       <c r="B383" t="s">
@@ -13410,13 +13344,13 @@
         <v>30.8</v>
       </c>
       <c r="F383">
-        <v>77.900000000000006</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="G383">
         <v>81</v>
       </c>
       <c r="H383">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="I383">
         <v>0</v>
@@ -13425,8 +13359,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A384" s="3" t="s">
+    <row r="384" spans="1:10">
+      <c r="A384" t="s">
         <v>33</v>
       </c>
       <c r="B384" t="s">
@@ -13454,8 +13388,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A385" s="3" t="s">
+    <row r="385" spans="1:10">
+      <c r="A385" t="s">
         <v>33</v>
       </c>
       <c r="B385" t="s">
@@ -13483,8 +13417,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A386" s="3" t="s">
+    <row r="386" spans="1:10">
+      <c r="A386" t="s">
         <v>33</v>
       </c>
       <c r="B386" t="s">
@@ -13497,13 +13431,13 @@
         <v>20.5</v>
       </c>
       <c r="F386">
-        <v>96.4</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="G386">
         <v>64</v>
       </c>
       <c r="H386">
-        <v>18.100000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="I386">
         <v>0</v>
@@ -13512,8 +13446,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A387" s="3" t="s">
+    <row r="387" spans="1:10">
+      <c r="A387" t="s">
         <v>33</v>
       </c>
       <c r="B387" t="s">
@@ -13541,8 +13475,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A388" s="3" t="s">
+    <row r="388" spans="1:10">
+      <c r="A388" t="s">
         <v>33</v>
       </c>
       <c r="B388" t="s">
@@ -13555,10 +13489,10 @@
         <v>29.9</v>
       </c>
       <c r="F388">
-        <v>65.400000000000006</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="G388">
-        <v>71.599999999999994</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="H388">
         <v>30</v>
@@ -13570,8 +13504,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A389" s="3" t="s">
+    <row r="389" spans="1:10">
+      <c r="A389" t="s">
         <v>33</v>
       </c>
       <c r="B389" t="s">
@@ -13581,10 +13515,10 @@
         <v>558</v>
       </c>
       <c r="E389">
-        <v>35.700000000000003</v>
+        <v>35.7</v>
       </c>
       <c r="F389">
-        <v>74.099999999999994</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="G389">
         <v>73.8</v>
@@ -13599,8 +13533,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A390" s="3" t="s">
+    <row r="390" spans="1:10">
+      <c r="A390" t="s">
         <v>33</v>
       </c>
       <c r="B390" t="s">
@@ -13616,10 +13550,10 @@
         <v>71.3</v>
       </c>
       <c r="G390">
-        <v>80.400000000000006</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="H390">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="I390">
         <v>0</v>
@@ -13628,8 +13562,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A391" s="3" t="s">
+    <row r="391" spans="1:10">
+      <c r="A391" t="s">
         <v>33</v>
       </c>
       <c r="B391" t="s">
@@ -13639,7 +13573,7 @@
         <v>544</v>
       </c>
       <c r="E391">
-        <v>32.299999999999997</v>
+        <v>32.3</v>
       </c>
       <c r="F391">
         <v>72</v>
@@ -13657,8 +13591,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A392" s="3" t="s">
+    <row r="392" spans="1:10">
+      <c r="A392" t="s">
         <v>33</v>
       </c>
       <c r="B392" t="s">
@@ -13686,8 +13620,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A393" s="3" t="s">
+    <row r="393" spans="1:10">
+      <c r="A393" t="s">
         <v>33</v>
       </c>
       <c r="B393" t="s">
@@ -13697,7 +13631,7 @@
         <v>535</v>
       </c>
       <c r="E393">
-        <v>17.100000000000001</v>
+        <v>17.1</v>
       </c>
       <c r="F393">
         <v>92.5</v>
@@ -13715,8 +13649,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A394" s="3" t="s">
+    <row r="394" spans="1:10">
+      <c r="A394" t="s">
         <v>33</v>
       </c>
       <c r="B394" t="s">
@@ -13726,13 +13660,13 @@
         <v>560</v>
       </c>
       <c r="E394">
-        <v>32.799999999999997</v>
+        <v>32.8</v>
       </c>
       <c r="F394">
-        <v>69.099999999999994</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="G394">
-        <v>82.4</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="H394">
         <v>24.9</v>
@@ -13744,8 +13678,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A395" s="3" t="s">
+    <row r="395" spans="1:10">
+      <c r="A395" t="s">
         <v>33</v>
       </c>
       <c r="B395" t="s">
@@ -13758,13 +13692,13 @@
         <v>23.8</v>
       </c>
       <c r="F395">
-        <v>68.400000000000006</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="G395">
         <v>66.3</v>
       </c>
       <c r="H395">
-        <v>19.899999999999999</v>
+        <v>19.9</v>
       </c>
       <c r="I395">
         <v>17.7</v>
@@ -13773,8 +13707,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A396" s="3" t="s">
+    <row r="396" spans="1:10">
+      <c r="A396" t="s">
         <v>33</v>
       </c>
       <c r="B396" t="s">
@@ -13802,8 +13736,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A397" s="3" t="s">
+    <row r="397" spans="1:10">
+      <c r="A397" t="s">
         <v>33</v>
       </c>
       <c r="B397" t="s">
@@ -13816,10 +13750,10 @@
         <v>27.4</v>
       </c>
       <c r="F397">
-        <v>72.599999999999994</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="G397">
-        <v>88.1</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="H397">
         <v>26.9</v>
@@ -13831,8 +13765,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A398" s="3" t="s">
+    <row r="398" spans="1:10">
+      <c r="A398" t="s">
         <v>33</v>
       </c>
       <c r="B398" t="s">
@@ -13860,8 +13794,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A399" s="3" t="s">
+    <row r="399" spans="1:10">
+      <c r="A399" t="s">
         <v>33</v>
       </c>
       <c r="B399" t="s">
@@ -13874,7 +13808,7 @@
         <v>28.4</v>
       </c>
       <c r="F399">
-        <v>75.900000000000006</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="G399">
         <v>56.3</v>
@@ -13889,8 +13823,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A400" s="3" t="s">
+    <row r="400" spans="1:10">
+      <c r="A400" t="s">
         <v>33</v>
       </c>
       <c r="B400" t="s">
@@ -13900,10 +13834,10 @@
         <v>541</v>
       </c>
       <c r="E400">
-        <v>33.200000000000003</v>
+        <v>33.2</v>
       </c>
       <c r="F400">
-        <v>77.099999999999994</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="G400">
         <v>71.2</v>
@@ -13918,8 +13852,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A401" s="3" t="s">
+    <row r="401" spans="1:10">
+      <c r="A401" t="s">
         <v>33</v>
       </c>
       <c r="B401" t="s">
@@ -13932,13 +13866,13 @@
         <v>38.5</v>
       </c>
       <c r="F401">
-        <v>76.400000000000006</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="G401">
         <v>39.1</v>
       </c>
       <c r="H401">
-        <v>17.600000000000001</v>
+        <v>17.6</v>
       </c>
       <c r="I401">
         <v>0</v>
@@ -13947,8 +13881,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A402" s="3" t="s">
+    <row r="402" spans="1:10">
+      <c r="A402" t="s">
         <v>33</v>
       </c>
       <c r="B402" t="s">
@@ -13967,7 +13901,7 @@
         <v>53.5</v>
       </c>
       <c r="H402">
-        <v>18.100000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="I402">
         <v>0</v>
@@ -13976,8 +13910,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A403" s="3" t="s">
+    <row r="403" spans="1:10">
+      <c r="A403" t="s">
         <v>34</v>
       </c>
       <c r="B403" t="s">
@@ -13993,7 +13927,7 @@
         <v>76</v>
       </c>
       <c r="G403">
-        <v>72.599999999999994</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="H403">
         <v>19</v>
@@ -14005,8 +13939,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A404" s="3" t="s">
+    <row r="404" spans="1:10">
+      <c r="A404" t="s">
         <v>34</v>
       </c>
       <c r="B404" t="s">
@@ -14022,7 +13956,7 @@
         <v>66.8</v>
       </c>
       <c r="G404">
-        <v>68.900000000000006</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="H404">
         <v>28.2</v>
@@ -14034,8 +13968,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A405" s="3" t="s">
+    <row r="405" spans="1:10">
+      <c r="A405" t="s">
         <v>34</v>
       </c>
       <c r="B405" t="s">
@@ -14048,7 +13982,7 @@
         <v>17.2</v>
       </c>
       <c r="F405">
-        <v>76.400000000000006</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="G405">
         <v>57.6</v>
@@ -14063,8 +13997,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A406" s="3" t="s">
+    <row r="406" spans="1:10">
+      <c r="A406" t="s">
         <v>34</v>
       </c>
       <c r="B406" t="s">
@@ -14077,7 +14011,7 @@
         <v>28.7</v>
       </c>
       <c r="F406">
-        <v>78.099999999999994</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="G406">
         <v>33.1</v>
@@ -14092,8 +14026,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A407" s="3" t="s">
+    <row r="407" spans="1:10">
+      <c r="A407" t="s">
         <v>34</v>
       </c>
       <c r="B407" t="s">
@@ -14109,7 +14043,7 @@
         <v>70</v>
       </c>
       <c r="G407">
-        <v>83.6</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="H407">
         <v>14.4</v>
@@ -14121,8 +14055,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A408" s="3" t="s">
+    <row r="408" spans="1:10">
+      <c r="A408" t="s">
         <v>34</v>
       </c>
       <c r="B408" t="s">
@@ -14150,8 +14084,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A409" s="3" t="s">
+    <row r="409" spans="1:10">
+      <c r="A409" t="s">
         <v>34</v>
       </c>
       <c r="B409" t="s">
@@ -14164,10 +14098,10 @@
         <v>36.1</v>
       </c>
       <c r="F409">
-        <v>71.099999999999994</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="G409">
-        <v>37.700000000000003</v>
+        <v>37.7</v>
       </c>
       <c r="H409">
         <v>15.5</v>
@@ -14179,8 +14113,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A410" s="3" t="s">
+    <row r="410" spans="1:10">
+      <c r="A410" t="s">
         <v>34</v>
       </c>
       <c r="B410" t="s">
@@ -14208,8 +14142,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A411" s="3" t="s">
+    <row r="411" spans="1:10">
+      <c r="A411" t="s">
         <v>34</v>
       </c>
       <c r="B411" t="s">
@@ -14237,8 +14171,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A412" s="3" t="s">
+    <row r="412" spans="1:10">
+      <c r="A412" t="s">
         <v>34</v>
       </c>
       <c r="B412" t="s">
@@ -14248,7 +14182,7 @@
         <v>545</v>
       </c>
       <c r="E412">
-        <v>38.299999999999997</v>
+        <v>38.3</v>
       </c>
       <c r="F412">
         <v>69.2</v>
@@ -14257,7 +14191,7 @@
         <v>58.2</v>
       </c>
       <c r="H412">
-        <v>18.100000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="I412">
         <v>0</v>
@@ -14266,8 +14200,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A413" s="3" t="s">
+    <row r="413" spans="1:10">
+      <c r="A413" t="s">
         <v>34</v>
       </c>
       <c r="B413" t="s">
@@ -14280,13 +14214,13 @@
         <v>25.2</v>
       </c>
       <c r="F413">
-        <v>79.099999999999994</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="G413">
         <v>59.2</v>
       </c>
       <c r="H413">
-        <v>17.600000000000001</v>
+        <v>17.6</v>
       </c>
       <c r="I413">
         <v>0</v>
@@ -14295,8 +14229,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A414" s="3" t="s">
+    <row r="414" spans="1:10">
+      <c r="A414" t="s">
         <v>34</v>
       </c>
       <c r="B414" t="s">
@@ -14306,7 +14240,7 @@
         <v>535</v>
       </c>
       <c r="E414">
-        <v>17.899999999999999</v>
+        <v>17.9</v>
       </c>
       <c r="F414">
         <v>78.5</v>
@@ -14324,8 +14258,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A415" s="3" t="s">
+    <row r="415" spans="1:10">
+      <c r="A415" t="s">
         <v>34</v>
       </c>
       <c r="B415" t="s">
@@ -14338,7 +14272,7 @@
         <v>21.5</v>
       </c>
       <c r="F415">
-        <v>87.9</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="G415">
         <v>52.8</v>
@@ -14353,8 +14287,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A416" s="3" t="s">
+    <row r="416" spans="1:10">
+      <c r="A416" t="s">
         <v>34</v>
       </c>
       <c r="B416" t="s">
@@ -14364,10 +14298,10 @@
         <v>545</v>
       </c>
       <c r="E416">
-        <v>32.700000000000003</v>
+        <v>32.7</v>
       </c>
       <c r="F416">
-        <v>74.099999999999994</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="G416">
         <v>62.9</v>
@@ -14382,8 +14316,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A417" s="3" t="s">
+    <row r="417" spans="1:10">
+      <c r="A417" t="s">
         <v>34</v>
       </c>
       <c r="B417" t="s">
@@ -14393,7 +14327,7 @@
         <v>536</v>
       </c>
       <c r="E417">
-        <v>33.200000000000003</v>
+        <v>33.2</v>
       </c>
       <c r="F417">
         <v>79.5</v>
@@ -14411,8 +14345,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A418" s="3" t="s">
+    <row r="418" spans="1:10">
+      <c r="A418" t="s">
         <v>34</v>
       </c>
       <c r="B418" t="s">
@@ -14422,7 +14356,7 @@
         <v>545</v>
       </c>
       <c r="E418">
-        <v>32.200000000000003</v>
+        <v>32.2</v>
       </c>
       <c r="F418">
         <v>75.7</v>
@@ -14431,7 +14365,7 @@
         <v>60.4</v>
       </c>
       <c r="H418">
-        <v>16.100000000000001</v>
+        <v>16.1</v>
       </c>
       <c r="I418">
         <v>0</v>
@@ -14440,8 +14374,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A419" s="3" t="s">
+    <row r="419" spans="1:10">
+      <c r="A419" t="s">
         <v>34</v>
       </c>
       <c r="B419" t="s">
@@ -14469,8 +14403,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A420" s="3" t="s">
+    <row r="420" spans="1:10">
+      <c r="A420" t="s">
         <v>34</v>
       </c>
       <c r="B420" t="s">
@@ -14486,7 +14420,7 @@
         <v>82.2</v>
       </c>
       <c r="G420">
-        <v>32.299999999999997</v>
+        <v>32.3</v>
       </c>
       <c r="H420">
         <v>13.1</v>
@@ -14498,8 +14432,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A421" s="3" t="s">
+    <row r="421" spans="1:10">
+      <c r="A421" t="s">
         <v>34</v>
       </c>
       <c r="B421" t="s">
@@ -14527,8 +14461,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A422" s="3" t="s">
+    <row r="422" spans="1:10">
+      <c r="A422" t="s">
         <v>34</v>
       </c>
       <c r="B422" t="s">
@@ -14556,8 +14490,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A423" s="3" t="s">
+    <row r="423" spans="1:10">
+      <c r="A423" t="s">
         <v>34</v>
       </c>
       <c r="B423" t="s">
@@ -14585,8 +14519,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A424" s="3" t="s">
+    <row r="424" spans="1:10">
+      <c r="A424" t="s">
         <v>34</v>
       </c>
       <c r="B424" t="s">
@@ -14605,7 +14539,7 @@
         <v>49.6</v>
       </c>
       <c r="H424">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="I424">
         <v>0</v>
@@ -14614,8 +14548,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A425" s="3" t="s">
+    <row r="425" spans="1:10">
+      <c r="A425" t="s">
         <v>34</v>
       </c>
       <c r="B425" t="s">
@@ -14634,7 +14568,7 @@
         <v>41</v>
       </c>
       <c r="H425">
-        <v>16.600000000000001</v>
+        <v>16.6</v>
       </c>
       <c r="I425">
         <v>0</v>
@@ -14643,8 +14577,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A426" s="3" t="s">
+    <row r="426" spans="1:10">
+      <c r="A426" t="s">
         <v>34</v>
       </c>
       <c r="B426" t="s">
@@ -14663,7 +14597,7 @@
         <v>39.6</v>
       </c>
       <c r="H426">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="I426">
         <v>0</v>
@@ -14672,8 +14606,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A427" s="3" t="s">
+    <row r="427" spans="1:10">
+      <c r="A427" t="s">
         <v>34</v>
       </c>
       <c r="B427" t="s">
@@ -14686,7 +14620,7 @@
         <v>26.2</v>
       </c>
       <c r="F427">
-        <v>75.599999999999994</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="G427">
         <v>49.9</v>
@@ -14701,8 +14635,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A428" s="3" t="s">
+    <row r="428" spans="1:10">
+      <c r="A428" t="s">
         <v>34</v>
       </c>
       <c r="B428" t="s">
@@ -14715,13 +14649,13 @@
         <v>18.2</v>
       </c>
       <c r="F428">
-        <v>75.599999999999994</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="G428">
         <v>87.5</v>
       </c>
       <c r="H428">
-        <v>18.100000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="I428">
         <v>0</v>
@@ -14730,8 +14664,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A429" s="3" t="s">
+    <row r="429" spans="1:10">
+      <c r="A429" t="s">
         <v>34</v>
       </c>
       <c r="B429" t="s">
@@ -14741,7 +14675,7 @@
         <v>566</v>
       </c>
       <c r="E429">
-        <v>37.200000000000003</v>
+        <v>37.2</v>
       </c>
       <c r="F429">
         <v>62</v>
@@ -14750,7 +14684,7 @@
         <v>67</v>
       </c>
       <c r="H429">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="I429">
         <v>0</v>
@@ -14759,8 +14693,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A430" s="3" t="s">
+    <row r="430" spans="1:10">
+      <c r="A430" t="s">
         <v>34</v>
       </c>
       <c r="B430" t="s">
@@ -14776,7 +14710,7 @@
         <v>73.2</v>
       </c>
       <c r="G430">
-        <v>85.1</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="H430">
         <v>21.2</v>
@@ -14788,8 +14722,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A431" s="3" t="s">
+    <row r="431" spans="1:10">
+      <c r="A431" t="s">
         <v>34</v>
       </c>
       <c r="B431" t="s">
@@ -14802,13 +14736,13 @@
         <v>22</v>
       </c>
       <c r="F431">
-        <v>80.099999999999994</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="G431">
         <v>91</v>
       </c>
       <c r="H431">
-        <v>9.3000000000000007</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I431">
         <v>0</v>
@@ -14817,8 +14751,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A432" s="3" t="s">
+    <row r="432" spans="1:10">
+      <c r="A432" t="s">
         <v>34</v>
       </c>
       <c r="B432" t="s">
@@ -14834,7 +14768,7 @@
         <v>75.2</v>
       </c>
       <c r="G432">
-        <v>72.599999999999994</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="H432">
         <v>15.5</v>
@@ -14846,8 +14780,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A433" s="3" t="s">
+    <row r="433" spans="1:10">
+      <c r="A433" t="s">
         <v>34</v>
       </c>
       <c r="B433" t="s">
@@ -14866,7 +14800,7 @@
         <v>68.3</v>
       </c>
       <c r="H433">
-        <v>17.600000000000001</v>
+        <v>17.6</v>
       </c>
       <c r="I433">
         <v>0</v>
@@ -14875,8 +14809,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A434" s="3" t="s">
+    <row r="434" spans="1:10">
+      <c r="A434" t="s">
         <v>34</v>
       </c>
       <c r="B434" t="s">
@@ -14895,7 +14829,7 @@
         <v>83.7</v>
       </c>
       <c r="H434">
-        <v>18.600000000000001</v>
+        <v>18.6</v>
       </c>
       <c r="I434">
         <v>0</v>
@@ -14904,8 +14838,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A435" s="3" t="s">
+    <row r="435" spans="1:10">
+      <c r="A435" t="s">
         <v>34</v>
       </c>
       <c r="B435" t="s">
@@ -14921,10 +14855,10 @@
         <v>61.2</v>
       </c>
       <c r="G435">
-        <v>72.599999999999994</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="H435">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="I435">
         <v>23.6</v>
@@ -14933,8 +14867,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A436" s="3" t="s">
+    <row r="436" spans="1:10">
+      <c r="A436" t="s">
         <v>34</v>
       </c>
       <c r="B436" t="s">
@@ -14944,7 +14878,7 @@
         <v>536</v>
       </c>
       <c r="E436">
-        <v>33.700000000000003</v>
+        <v>33.7</v>
       </c>
       <c r="F436">
         <v>81.5</v>
@@ -14953,7 +14887,7 @@
         <v>56.3</v>
       </c>
       <c r="H436">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I436">
         <v>0</v>
@@ -14962,8 +14896,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A437" s="3" t="s">
+    <row r="437" spans="1:10">
+      <c r="A437" t="s">
         <v>34</v>
       </c>
       <c r="B437" t="s">
@@ -14976,13 +14910,13 @@
         <v>30.1</v>
       </c>
       <c r="F437">
-        <v>73.599999999999994</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="G437">
         <v>64.2</v>
       </c>
       <c r="H437">
-        <v>16.600000000000001</v>
+        <v>16.6</v>
       </c>
       <c r="I437">
         <v>0</v>
@@ -14991,8 +14925,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A438" s="3" t="s">
+    <row r="438" spans="1:10">
+      <c r="A438" t="s">
         <v>34</v>
       </c>
       <c r="B438" t="s">
@@ -15005,10 +14939,10 @@
         <v>26.3</v>
       </c>
       <c r="F438">
-        <v>69.900000000000006</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="G438">
-        <v>81.099999999999994</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="H438">
         <v>21.6</v>
@@ -15020,8 +14954,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A439" s="3" t="s">
+    <row r="439" spans="1:10">
+      <c r="A439" t="s">
         <v>34</v>
       </c>
       <c r="B439" t="s">
@@ -15031,7 +14965,7 @@
         <v>536</v>
       </c>
       <c r="E439">
-        <v>35.299999999999997</v>
+        <v>35.3</v>
       </c>
       <c r="F439">
         <v>77.7</v>
@@ -15049,8 +14983,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A440" s="3" t="s">
+    <row r="440" spans="1:10">
+      <c r="A440" t="s">
         <v>34</v>
       </c>
       <c r="B440" t="s">
@@ -15063,13 +14997,13 @@
         <v>27.9</v>
       </c>
       <c r="F440">
-        <v>84.1</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="G440">
         <v>56.4</v>
       </c>
       <c r="H440">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="I440">
         <v>0</v>
@@ -15078,8 +15012,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A441" s="3" t="s">
+    <row r="441" spans="1:10">
+      <c r="A441" t="s">
         <v>34</v>
       </c>
       <c r="B441" t="s">
@@ -15089,7 +15023,7 @@
         <v>536</v>
       </c>
       <c r="E441">
-        <v>34.799999999999997</v>
+        <v>34.8</v>
       </c>
       <c r="F441">
         <v>74.7</v>
@@ -15107,8 +15041,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A442" s="3" t="s">
+    <row r="442" spans="1:10">
+      <c r="A442" t="s">
         <v>34</v>
       </c>
       <c r="B442" t="s">
@@ -15127,7 +15061,7 @@
         <v>77</v>
       </c>
       <c r="H442">
-        <v>16.600000000000001</v>
+        <v>16.6</v>
       </c>
       <c r="I442">
         <v>0</v>
@@ -15136,8 +15070,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A443" s="3" t="s">
+    <row r="443" spans="1:10">
+      <c r="A443" t="s">
         <v>34</v>
       </c>
       <c r="B443" t="s">
@@ -15153,10 +15087,10 @@
         <v>72.7</v>
       </c>
       <c r="G443">
-        <v>79.099999999999994</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="H443">
-        <v>16.600000000000001</v>
+        <v>16.6</v>
       </c>
       <c r="I443">
         <v>0</v>
@@ -15165,8 +15099,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A444" s="3" t="s">
+    <row r="444" spans="1:10">
+      <c r="A444" t="s">
         <v>34</v>
       </c>
       <c r="B444" t="s">
@@ -15182,10 +15116,10 @@
         <v>70.7</v>
       </c>
       <c r="G444">
-        <v>75.599999999999994</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="H444">
-        <v>16.100000000000001</v>
+        <v>16.1</v>
       </c>
       <c r="I444">
         <v>0</v>
@@ -15194,8 +15128,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A445" s="3" t="s">
+    <row r="445" spans="1:10">
+      <c r="A445" t="s">
         <v>34</v>
       </c>
       <c r="B445" t="s">
@@ -15205,7 +15139,7 @@
         <v>545</v>
       </c>
       <c r="E445">
-        <v>39.799999999999997</v>
+        <v>39.8</v>
       </c>
       <c r="F445">
         <v>68.5</v>
@@ -15214,7 +15148,7 @@
         <v>53</v>
       </c>
       <c r="H445">
-        <v>16.600000000000001</v>
+        <v>16.6</v>
       </c>
       <c r="I445">
         <v>0</v>
@@ -15223,8 +15157,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A446" s="3" t="s">
+    <row r="446" spans="1:10">
+      <c r="A446" t="s">
         <v>34</v>
       </c>
       <c r="B446" t="s">
@@ -15237,10 +15171,10 @@
         <v>22.8</v>
       </c>
       <c r="F446">
-        <v>78.099999999999994</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="G446">
-        <v>93.9</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="H446">
         <v>13.8</v>
@@ -15252,8 +15186,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A447" s="3" t="s">
+    <row r="447" spans="1:10">
+      <c r="A447" t="s">
         <v>34</v>
       </c>
       <c r="B447" t="s">
@@ -15266,13 +15200,13 @@
         <v>24.9</v>
       </c>
       <c r="F447">
-        <v>83.1</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="G447">
         <v>42.8</v>
       </c>
       <c r="H447">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="I447">
         <v>0</v>
@@ -15281,8 +15215,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A448" s="3" t="s">
+    <row r="448" spans="1:10">
+      <c r="A448" t="s">
         <v>34</v>
       </c>
       <c r="B448" t="s">
@@ -15295,7 +15229,7 @@
         <v>21.7</v>
       </c>
       <c r="F448">
-        <v>69.400000000000006</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="G448">
         <v>72.3</v>
@@ -15310,8 +15244,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A449" s="3" t="s">
+    <row r="449" spans="1:10">
+      <c r="A449" t="s">
         <v>34</v>
       </c>
       <c r="B449" t="s">
@@ -15324,7 +15258,7 @@
         <v>26.2</v>
       </c>
       <c r="F449">
-        <v>82.6</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="G449">
         <v>42.1</v>
@@ -15339,8 +15273,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A450" s="3" t="s">
+    <row r="450" spans="1:10">
+      <c r="A450" t="s">
         <v>34</v>
       </c>
       <c r="B450" t="s">
@@ -15353,7 +15287,7 @@
         <v>28.2</v>
       </c>
       <c r="F450">
-        <v>69.099999999999994</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="G450">
         <v>63.2</v>
@@ -15368,8 +15302,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A451" s="3" t="s">
+    <row r="451" spans="1:10">
+      <c r="A451" t="s">
         <v>34</v>
       </c>
       <c r="B451" t="s">
@@ -15379,16 +15313,16 @@
         <v>536</v>
       </c>
       <c r="E451">
-        <v>19.399999999999999</v>
+        <v>19.4</v>
       </c>
       <c r="F451">
-        <v>94.1</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="G451">
         <v>37.6</v>
       </c>
       <c r="H451">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I451">
         <v>0</v>
@@ -15397,8 +15331,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A452" s="3" t="s">
+    <row r="452" spans="1:10">
+      <c r="A452" t="s">
         <v>34</v>
       </c>
       <c r="B452" t="s">
@@ -15426,8 +15360,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A453" s="3" t="s">
+    <row r="453" spans="1:10">
+      <c r="A453" t="s">
         <v>34</v>
       </c>
       <c r="B453" t="s">
@@ -15440,10 +15374,10 @@
         <v>22.1</v>
       </c>
       <c r="F453">
-        <v>77.099999999999994</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="G453">
-        <v>86.6</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="H453">
         <v>12.5</v>
@@ -15455,8 +15389,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A454" s="3" t="s">
+    <row r="454" spans="1:10">
+      <c r="A454" t="s">
         <v>34</v>
       </c>
       <c r="B454" t="s">
@@ -15484,8 +15418,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A455" s="3" t="s">
+    <row r="455" spans="1:10">
+      <c r="A455" t="s">
         <v>34</v>
       </c>
       <c r="B455" t="s">
@@ -15504,7 +15438,7 @@
         <v>47.8</v>
       </c>
       <c r="H455">
-        <v>16.100000000000001</v>
+        <v>16.1</v>
       </c>
       <c r="I455">
         <v>0</v>
@@ -15513,8 +15447,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A456" s="3" t="s">
+    <row r="456" spans="1:10">
+      <c r="A456" t="s">
         <v>34</v>
       </c>
       <c r="B456" t="s">
@@ -15530,10 +15464,10 @@
         <v>70.7</v>
       </c>
       <c r="G456">
-        <v>74.400000000000006</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="H456">
-        <v>18.100000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="I456">
         <v>0</v>
@@ -15542,8 +15476,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A457" s="3" t="s">
+    <row r="457" spans="1:10">
+      <c r="A457" t="s">
         <v>34</v>
       </c>
       <c r="B457" t="s">
@@ -15562,7 +15496,7 @@
         <v>69.8</v>
       </c>
       <c r="H457">
-        <v>17.600000000000001</v>
+        <v>17.6</v>
       </c>
       <c r="I457">
         <v>0</v>
@@ -15571,8 +15505,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A458" s="3" t="s">
+    <row r="458" spans="1:10">
+      <c r="A458" t="s">
         <v>34</v>
       </c>
       <c r="B458" t="s">
@@ -15600,8 +15534,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A459" s="3" t="s">
+    <row r="459" spans="1:10">
+      <c r="A459" t="s">
         <v>34</v>
       </c>
       <c r="B459" t="s">
@@ -15611,16 +15545,16 @@
         <v>536</v>
       </c>
       <c r="E459">
-        <v>33.700000000000003</v>
+        <v>33.7</v>
       </c>
       <c r="F459">
-        <v>70.599999999999994</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="G459">
         <v>45.6</v>
       </c>
       <c r="H459">
-        <v>16.600000000000001</v>
+        <v>16.6</v>
       </c>
       <c r="I459">
         <v>0</v>
@@ -15629,8 +15563,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A460" s="3" t="s">
+    <row r="460" spans="1:10">
+      <c r="A460" t="s">
         <v>34</v>
       </c>
       <c r="B460" t="s">
@@ -15646,10 +15580,10 @@
         <v>81</v>
       </c>
       <c r="G460">
-        <v>64.599999999999994</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="H460">
-        <v>18.100000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="I460">
         <v>0</v>
@@ -15658,8 +15592,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A461" s="3" t="s">
+    <row r="461" spans="1:10">
+      <c r="A461" t="s">
         <v>34</v>
       </c>
       <c r="B461" t="s">
@@ -15672,10 +15606,10 @@
         <v>26.7</v>
       </c>
       <c r="F461">
-        <v>74.099999999999994</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="G461">
-        <v>85.1</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="H461">
         <v>19</v>
@@ -15687,8 +15621,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A462" s="3" t="s">
+    <row r="462" spans="1:10">
+      <c r="A462" t="s">
         <v>34</v>
       </c>
       <c r="B462" t="s">
@@ -15701,7 +15635,7 @@
         <v>30.1</v>
       </c>
       <c r="F462">
-        <v>75.599999999999994</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="G462">
         <v>71.7</v>
@@ -15716,8 +15650,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A463" s="3" t="s">
+    <row r="463" spans="1:10">
+      <c r="A463" t="s">
         <v>34</v>
       </c>
       <c r="B463" t="s">
@@ -15745,8 +15679,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A464" s="3" t="s">
+    <row r="464" spans="1:10">
+      <c r="A464" t="s">
         <v>34</v>
       </c>
       <c r="B464" t="s">
@@ -15759,13 +15693,13 @@
         <v>38.5</v>
       </c>
       <c r="F464">
-        <v>66.900000000000006</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="G464">
         <v>60</v>
       </c>
       <c r="H464">
-        <v>18.100000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="I464">
         <v>0</v>
@@ -15774,8 +15708,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A465" s="3" t="s">
+    <row r="465" spans="1:10">
+      <c r="A465" t="s">
         <v>34</v>
       </c>
       <c r="B465" t="s">
@@ -15785,13 +15719,13 @@
         <v>561</v>
       </c>
       <c r="E465">
-        <v>32.700000000000003</v>
+        <v>32.7</v>
       </c>
       <c r="F465">
         <v>61.7</v>
       </c>
       <c r="G465">
-        <v>66.400000000000006</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="H465">
         <v>21.6</v>
@@ -15803,8 +15737,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A466" s="3" t="s">
+    <row r="466" spans="1:10">
+      <c r="A466" t="s">
         <v>34</v>
       </c>
       <c r="B466" t="s">
@@ -15817,13 +15751,13 @@
         <v>21.7</v>
       </c>
       <c r="F466">
-        <v>77.099999999999994</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="G466">
         <v>81.7</v>
       </c>
       <c r="H466">
-        <v>18.100000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="I466">
         <v>0</v>
@@ -15832,8 +15766,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A467" s="3" t="s">
+    <row r="467" spans="1:10">
+      <c r="A467" t="s">
         <v>34</v>
       </c>
       <c r="B467" t="s">
@@ -15861,8 +15795,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A468" s="3" t="s">
+    <row r="468" spans="1:10">
+      <c r="A468" t="s">
         <v>34</v>
       </c>
       <c r="B468" t="s">
@@ -15890,8 +15824,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A469" s="3" t="s">
+    <row r="469" spans="1:10">
+      <c r="A469" t="s">
         <v>34</v>
       </c>
       <c r="B469" t="s">
@@ -15904,7 +15838,7 @@
         <v>21.6</v>
       </c>
       <c r="F469">
-        <v>67.900000000000006</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="G469">
         <v>84</v>
@@ -15919,8 +15853,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A470" s="3" t="s">
+    <row r="470" spans="1:10">
+      <c r="A470" t="s">
         <v>34</v>
       </c>
       <c r="B470" t="s">
@@ -15933,13 +15867,13 @@
         <v>33</v>
       </c>
       <c r="F470">
-        <v>70.400000000000006</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="G470">
         <v>74.5</v>
       </c>
       <c r="H470">
-        <v>18.600000000000001</v>
+        <v>18.6</v>
       </c>
       <c r="I470">
         <v>0</v>
@@ -15948,8 +15882,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A471" s="3" t="s">
+    <row r="471" spans="1:10">
+      <c r="A471" t="s">
         <v>34</v>
       </c>
       <c r="B471" t="s">
@@ -15962,10 +15896,10 @@
         <v>23.6</v>
       </c>
       <c r="F471">
-        <v>68.099999999999994</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="G471">
-        <v>84.6</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="H471">
         <v>23.1</v>
@@ -15977,8 +15911,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A472" s="3" t="s">
+    <row r="472" spans="1:10">
+      <c r="A472" t="s">
         <v>34</v>
       </c>
       <c r="B472" t="s">
@@ -15991,7 +15925,7 @@
         <v>20.5</v>
       </c>
       <c r="F472">
-        <v>72.900000000000006</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="G472">
         <v>89.3</v>
@@ -16006,8 +15940,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A473" s="3" t="s">
+    <row r="473" spans="1:10">
+      <c r="A473" t="s">
         <v>34</v>
       </c>
       <c r="B473" t="s">
@@ -16035,8 +15969,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A474" s="3" t="s">
+    <row r="474" spans="1:10">
+      <c r="A474" t="s">
         <v>34</v>
       </c>
       <c r="B474" t="s">
@@ -16052,7 +15986,7 @@
         <v>59.7</v>
       </c>
       <c r="G474">
-        <v>83.1</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="H474">
         <v>28.2</v>
@@ -16064,8 +15998,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A475" s="3" t="s">
+    <row r="475" spans="1:10">
+      <c r="A475" t="s">
         <v>34</v>
       </c>
       <c r="B475" t="s">
@@ -16093,8 +16027,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A476" s="3" t="s">
+    <row r="476" spans="1:10">
+      <c r="A476" t="s">
         <v>34</v>
       </c>
       <c r="B476" t="s">
@@ -16110,7 +16044,7 @@
         <v>72.7</v>
       </c>
       <c r="G476">
-        <v>70.599999999999994</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="H476">
         <v>21.2</v>
@@ -16122,8 +16056,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A477" s="3" t="s">
+    <row r="477" spans="1:10">
+      <c r="A477" t="s">
         <v>34</v>
       </c>
       <c r="B477" t="s">
@@ -16151,8 +16085,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A478" s="3" t="s">
+    <row r="478" spans="1:10">
+      <c r="A478" t="s">
         <v>34</v>
       </c>
       <c r="B478" t="s">
@@ -16180,8 +16114,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A479" s="3" t="s">
+    <row r="479" spans="1:10">
+      <c r="A479" t="s">
         <v>34</v>
       </c>
       <c r="B479" t="s">
@@ -16209,8 +16143,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A480" s="3" t="s">
+    <row r="480" spans="1:10">
+      <c r="A480" t="s">
         <v>34</v>
       </c>
       <c r="B480" t="s">
@@ -16238,8 +16172,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A481" s="3" t="s">
+    <row r="481" spans="1:10">
+      <c r="A481" t="s">
         <v>34</v>
       </c>
       <c r="B481" t="s">
@@ -16252,7 +16186,7 @@
         <v>25.9</v>
       </c>
       <c r="F481">
-        <v>76.099999999999994</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="G481">
         <v>73.3</v>
@@ -16267,8 +16201,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A482" s="3" t="s">
+    <row r="482" spans="1:10">
+      <c r="A482" t="s">
         <v>34</v>
       </c>
       <c r="B482" t="s">
@@ -16281,13 +16215,13 @@
         <v>12.2</v>
       </c>
       <c r="F482">
-        <v>94.6</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="G482">
         <v>78.8</v>
       </c>
       <c r="H482">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I482">
         <v>0</v>
@@ -16296,8 +16230,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A483" s="3" t="s">
+    <row r="483" spans="1:10">
+      <c r="A483" t="s">
         <v>34</v>
       </c>
       <c r="B483" t="s">
@@ -16316,7 +16250,7 @@
         <v>75</v>
       </c>
       <c r="H483">
-        <v>19.899999999999999</v>
+        <v>19.9</v>
       </c>
       <c r="I483">
         <v>0</v>
@@ -16325,8 +16259,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A484" s="3" t="s">
+    <row r="484" spans="1:10">
+      <c r="A484" t="s">
         <v>34</v>
       </c>
       <c r="B484" t="s">
@@ -16342,7 +16276,7 @@
         <v>68.2</v>
       </c>
       <c r="G484">
-        <v>78.599999999999994</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="H484">
         <v>23.1</v>
@@ -16354,8 +16288,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A485" s="3" t="s">
+    <row r="485" spans="1:10">
+      <c r="A485" t="s">
         <v>34</v>
       </c>
       <c r="B485" t="s">
@@ -16383,8 +16317,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A486" s="3" t="s">
+    <row r="486" spans="1:10">
+      <c r="A486" t="s">
         <v>34</v>
       </c>
       <c r="B486" t="s">
@@ -16412,8 +16346,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A487" s="3" t="s">
+    <row r="487" spans="1:10">
+      <c r="A487" t="s">
         <v>34</v>
       </c>
       <c r="B487" t="s">
@@ -16426,13 +16360,13 @@
         <v>26</v>
       </c>
       <c r="F487">
-        <v>69.099999999999994</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="G487">
-        <v>72.900000000000006</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="H487">
-        <v>19.899999999999999</v>
+        <v>19.9</v>
       </c>
       <c r="I487">
         <v>0</v>
@@ -16441,8 +16375,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A488" s="3" t="s">
+    <row r="488" spans="1:10">
+      <c r="A488" t="s">
         <v>34</v>
       </c>
       <c r="B488" t="s">
@@ -16458,10 +16392,10 @@
         <v>75.3</v>
       </c>
       <c r="G488">
-        <v>76.900000000000006</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="H488">
-        <v>18.100000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="I488">
         <v>0</v>
@@ -16470,8 +16404,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A489" s="3" t="s">
+    <row r="489" spans="1:10">
+      <c r="A489" t="s">
         <v>34</v>
       </c>
       <c r="B489" t="s">
@@ -16487,7 +16421,7 @@
         <v>68.3</v>
       </c>
       <c r="G489">
-        <v>73.900000000000006</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="H489">
         <v>11.8</v>
@@ -16499,8 +16433,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A490" s="3" t="s">
+    <row r="490" spans="1:10">
+      <c r="A490" t="s">
         <v>34</v>
       </c>
       <c r="B490" t="s">
@@ -16528,8 +16462,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A491" s="3" t="s">
+    <row r="491" spans="1:10">
+      <c r="A491" t="s">
         <v>34</v>
       </c>
       <c r="B491" t="s">
@@ -16557,8 +16491,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A492" s="3" t="s">
+    <row r="492" spans="1:10">
+      <c r="A492" t="s">
         <v>34</v>
       </c>
       <c r="B492" t="s">
@@ -16571,13 +16505,13 @@
         <v>29.1</v>
       </c>
       <c r="F492">
-        <v>73.599999999999994</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="G492">
-        <v>72.400000000000006</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="H492">
-        <v>18.100000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="I492">
         <v>0</v>
@@ -16586,8 +16520,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A493" s="3" t="s">
+    <row r="493" spans="1:10">
+      <c r="A493" t="s">
         <v>34</v>
       </c>
       <c r="B493" t="s">
@@ -16615,8 +16549,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A494" s="3" t="s">
+    <row r="494" spans="1:10">
+      <c r="A494" t="s">
         <v>34</v>
       </c>
       <c r="B494" t="s">
@@ -16644,8 +16578,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A495" s="3" t="s">
+    <row r="495" spans="1:10">
+      <c r="A495" t="s">
         <v>34</v>
       </c>
       <c r="B495" t="s">
@@ -16664,7 +16598,7 @@
         <v>81.2</v>
       </c>
       <c r="H495">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="I495">
         <v>0</v>
@@ -16673,8 +16607,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A496" s="3" t="s">
+    <row r="496" spans="1:10">
+      <c r="A496" t="s">
         <v>34</v>
       </c>
       <c r="B496" t="s">
@@ -16687,7 +16621,7 @@
         <v>30.5</v>
       </c>
       <c r="F496">
-        <v>69.599999999999994</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="G496">
         <v>56.9</v>
@@ -16702,8 +16636,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A497" s="3" t="s">
+    <row r="497" spans="1:10">
+      <c r="A497" t="s">
         <v>34</v>
       </c>
       <c r="B497" t="s">
@@ -16731,8 +16665,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A498" s="3" t="s">
+    <row r="498" spans="1:10">
+      <c r="A498" t="s">
         <v>34</v>
       </c>
       <c r="B498" t="s">
@@ -16760,8 +16694,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A499" s="3" t="s">
+    <row r="499" spans="1:10">
+      <c r="A499" t="s">
         <v>34</v>
       </c>
       <c r="B499" t="s">
@@ -16789,8 +16723,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A500" s="3" t="s">
+    <row r="500" spans="1:10">
+      <c r="A500" t="s">
         <v>34</v>
       </c>
       <c r="B500" t="s">
@@ -16818,8 +16752,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A501" s="3" t="s">
+    <row r="501" spans="1:10">
+      <c r="A501" t="s">
         <v>34</v>
       </c>
       <c r="B501" t="s">
@@ -16838,7 +16772,7 @@
         <v>40.1</v>
       </c>
       <c r="H501">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="I501">
         <v>0</v>
